--- a/Code/Results/Cases/Case_1_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_12/res_line/pl_mw.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7716153062158071</v>
+        <v>0.7716153062157218</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.315369411869739</v>
+        <v>1.31536941186971</v>
       </c>
       <c r="E2">
-        <v>1.215685926153213</v>
+        <v>1.215685926153157</v>
       </c>
       <c r="F2">
-        <v>18.12744176811566</v>
+        <v>18.12744176811549</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.8275455913752978</v>
+        <v>0.8275455913753262</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.19388143735239</v>
+        <v>12.19388143735236</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6670478587070363</v>
+        <v>0.66704785870715</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9774953621356985</v>
+        <v>0.9774953621358975</v>
       </c>
       <c r="E3">
-        <v>0.999880944446673</v>
+        <v>0.9998809444466588</v>
       </c>
       <c r="F3">
-        <v>13.7278129704747</v>
+        <v>13.72781297047493</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.767661391348867</v>
+        <v>9.76766139134898</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.603972704728335</v>
+        <v>0.6039727047284487</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.8224041167856058</v>
+        <v>0.8224041167856626</v>
       </c>
       <c r="E4">
         <v>0.8879602484780236</v>
       </c>
       <c r="F4">
-        <v>11.66736984763136</v>
+        <v>11.66736984763128</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.7022327655746565</v>
+        <v>0.7022327655746423</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.538493530656922</v>
+        <v>8.53849353065695</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.578462026045969</v>
+        <v>0.578462026046509</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.7663532362587091</v>
+        <v>0.7663532362591354</v>
       </c>
       <c r="E5">
-        <v>0.8450258819093079</v>
+        <v>0.8450258819093364</v>
       </c>
       <c r="F5">
-        <v>10.9158789086415</v>
+        <v>10.91587890864139</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.073458473209342</v>
+        <v>8.073458473209286</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -570,19 +570,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.7573827212260085</v>
+        <v>0.7573827212264064</v>
       </c>
       <c r="E6">
-        <v>0.8380197480829139</v>
+        <v>0.838019748082985</v>
       </c>
       <c r="F6">
-        <v>10.79525799401574</v>
+        <v>10.7952579940158</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.6806571788225924</v>
+        <v>0.6806571788225781</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.997931090732692</v>
+        <v>7.997931090732749</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,7 +602,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6036279695403266</v>
+        <v>0.6036279695408666</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -611,7 +611,7 @@
         <v>0.8216238627940413</v>
       </c>
       <c r="E7">
-        <v>0.8873722637103185</v>
+        <v>0.8873722637103469</v>
       </c>
       <c r="F7">
         <v>11.6569343419128</v>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.7019810517503373</v>
+        <v>0.7019810517503302</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.532099708013419</v>
+        <v>8.532099708013391</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7352539415612114</v>
+        <v>0.7352539415609272</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.182050925885505</v>
+        <v>1.182050925886159</v>
       </c>
       <c r="E8">
-        <v>1.134484590517715</v>
+        <v>1.134484590517729</v>
       </c>
       <c r="F8">
-        <v>16.40545377637073</v>
+        <v>16.40545377637085</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.27413388378895</v>
+        <v>11.27413388378892</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7352539415612114</v>
+        <v>0.7352539415609272</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.182050925885505</v>
+        <v>1.182050925886159</v>
       </c>
       <c r="E9">
-        <v>1.134484590517715</v>
+        <v>1.134484590517729</v>
       </c>
       <c r="F9">
-        <v>16.40545377637073</v>
+        <v>16.40545377637085</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.27413388378895</v>
+        <v>11.27413388378892</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7352539415612114</v>
+        <v>0.7352539415609272</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.182050925885505</v>
+        <v>1.182050925886159</v>
       </c>
       <c r="E10">
-        <v>1.134484590517715</v>
+        <v>1.134484590517729</v>
       </c>
       <c r="F10">
-        <v>16.40545377637073</v>
+        <v>16.40545377637085</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.27413388378895</v>
+        <v>11.27413388378892</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7352539415612114</v>
+        <v>0.7352539415609272</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.182050925885505</v>
+        <v>1.182050925886159</v>
       </c>
       <c r="E11">
-        <v>1.134484590517715</v>
+        <v>1.134484590517729</v>
       </c>
       <c r="F11">
-        <v>16.40545377637073</v>
+        <v>16.40545377637085</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.27413388378895</v>
+        <v>11.27413388378892</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7352539415612114</v>
+        <v>0.7352539415609272</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.182050925885505</v>
+        <v>1.182050925886159</v>
       </c>
       <c r="E12">
-        <v>1.134484590517715</v>
+        <v>1.134484590517729</v>
       </c>
       <c r="F12">
-        <v>16.40545377637073</v>
+        <v>16.40545377637085</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.27413388378895</v>
+        <v>11.27413388378892</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7352539415612114</v>
+        <v>0.7352539415609272</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.182050925885505</v>
+        <v>1.182050925886159</v>
       </c>
       <c r="E13">
-        <v>1.134484590517715</v>
+        <v>1.134484590517729</v>
       </c>
       <c r="F13">
-        <v>16.40545377637073</v>
+        <v>16.40545377637085</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.27413388378895</v>
+        <v>11.27413388378892</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7352539415612114</v>
+        <v>0.7352539415609272</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.182050925885505</v>
+        <v>1.182050925886159</v>
       </c>
       <c r="E14">
-        <v>1.134484590517715</v>
+        <v>1.134484590517729</v>
       </c>
       <c r="F14">
-        <v>16.40545377637073</v>
+        <v>16.40545377637085</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.27413388378895</v>
+        <v>11.27413388378892</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7352539415612114</v>
+        <v>0.7352539415609272</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.182050925885505</v>
+        <v>1.182050925886159</v>
       </c>
       <c r="E15">
-        <v>1.134484590517715</v>
+        <v>1.134484590517729</v>
       </c>
       <c r="F15">
-        <v>16.40545377637073</v>
+        <v>16.40545377637085</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.27413388378895</v>
+        <v>11.27413388378892</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7352539415612114</v>
+        <v>0.7352539415609272</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.182050925885505</v>
+        <v>1.182050925886159</v>
       </c>
       <c r="E16">
-        <v>1.134484590517715</v>
+        <v>1.134484590517729</v>
       </c>
       <c r="F16">
-        <v>16.40545377637073</v>
+        <v>16.40545377637085</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.27413388378895</v>
+        <v>11.27413388378892</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7352539415612114</v>
+        <v>0.7352539415609272</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.182050925885505</v>
+        <v>1.182050925886159</v>
       </c>
       <c r="E17">
-        <v>1.134484590517715</v>
+        <v>1.134484590517729</v>
       </c>
       <c r="F17">
-        <v>16.40545377637073</v>
+        <v>16.40545377637085</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.27413388378895</v>
+        <v>11.27413388378892</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7352539415612114</v>
+        <v>0.7352539415609272</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.182050925885505</v>
+        <v>1.182050925886159</v>
       </c>
       <c r="E18">
-        <v>1.134484590517715</v>
+        <v>1.134484590517729</v>
       </c>
       <c r="F18">
-        <v>16.40545377637073</v>
+        <v>16.40545377637085</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.27413388378895</v>
+        <v>11.27413388378892</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7352539415612114</v>
+        <v>0.7352539415609272</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.182050925885505</v>
+        <v>1.182050925886159</v>
       </c>
       <c r="E19">
-        <v>1.134484590517715</v>
+        <v>1.134484590517729</v>
       </c>
       <c r="F19">
-        <v>16.40545377637073</v>
+        <v>16.40545377637085</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.27413388378895</v>
+        <v>11.27413388378892</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7352539415612114</v>
+        <v>0.7352539415609272</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.182050925885505</v>
+        <v>1.182050925886159</v>
       </c>
       <c r="E20">
-        <v>1.134484590517715</v>
+        <v>1.134484590517729</v>
       </c>
       <c r="F20">
-        <v>16.40545377637073</v>
+        <v>16.40545377637085</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.27413388378895</v>
+        <v>11.27413388378892</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7352539415612114</v>
+        <v>0.7352539415609272</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.182050925885505</v>
+        <v>1.182050925886159</v>
       </c>
       <c r="E21">
-        <v>1.134484590517715</v>
+        <v>1.134484590517729</v>
       </c>
       <c r="F21">
-        <v>16.40545377637073</v>
+        <v>16.40545377637085</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.27413388378895</v>
+        <v>11.27413388378892</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7352539415612114</v>
+        <v>0.7352539415609272</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.182050925885505</v>
+        <v>1.182050925886159</v>
       </c>
       <c r="E22">
-        <v>1.134484590517715</v>
+        <v>1.134484590517729</v>
       </c>
       <c r="F22">
-        <v>16.40545377637073</v>
+        <v>16.40545377637085</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.27413388378895</v>
+        <v>11.27413388378892</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7352539415612114</v>
+        <v>0.7352539415609272</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.182050925885505</v>
+        <v>1.182050925886159</v>
       </c>
       <c r="E23">
-        <v>1.134484590517715</v>
+        <v>1.134484590517729</v>
       </c>
       <c r="F23">
-        <v>16.40545377637073</v>
+        <v>16.40545377637085</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.27413388378895</v>
+        <v>11.27413388378892</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7352539415612114</v>
+        <v>0.7352539415609272</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.182050925885505</v>
+        <v>1.182050925886159</v>
       </c>
       <c r="E24">
-        <v>1.134484590517715</v>
+        <v>1.134484590517729</v>
       </c>
       <c r="F24">
-        <v>16.40545377637073</v>
+        <v>16.40545377637085</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.27413388378895</v>
+        <v>11.27413388378892</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7352539415612114</v>
+        <v>0.7352539415609272</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.182050925885505</v>
+        <v>1.182050925886159</v>
       </c>
       <c r="E25">
-        <v>1.134484590517715</v>
+        <v>1.134484590517729</v>
       </c>
       <c r="F25">
-        <v>16.40545377637073</v>
+        <v>16.40545377637085</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.27413388378895</v>
+        <v>11.27413388378892</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_12/res_line/pl_mw.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7716153062157218</v>
+        <v>0.7716153062158071</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.31536941186971</v>
+        <v>1.315369411869739</v>
       </c>
       <c r="E2">
-        <v>1.215685926153157</v>
+        <v>1.215685926153213</v>
       </c>
       <c r="F2">
-        <v>18.12744176811549</v>
+        <v>18.12744176811566</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.8275455913753262</v>
+        <v>0.8275455913752978</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.19388143735236</v>
+        <v>12.19388143735239</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.66704785870715</v>
+        <v>0.6670478587070363</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9774953621358975</v>
+        <v>0.9774953621356985</v>
       </c>
       <c r="E3">
-        <v>0.9998809444466588</v>
+        <v>0.999880944446673</v>
       </c>
       <c r="F3">
-        <v>13.72781297047493</v>
+        <v>13.7278129704747</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.76766139134898</v>
+        <v>9.767661391348867</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6039727047284487</v>
+        <v>0.603972704728335</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.8224041167856626</v>
+        <v>0.8224041167856058</v>
       </c>
       <c r="E4">
         <v>0.8879602484780236</v>
       </c>
       <c r="F4">
-        <v>11.66736984763128</v>
+        <v>11.66736984763136</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.7022327655746423</v>
+        <v>0.7022327655746565</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.53849353065695</v>
+        <v>8.538493530656922</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.578462026046509</v>
+        <v>0.578462026045969</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.7663532362591354</v>
+        <v>0.7663532362587091</v>
       </c>
       <c r="E5">
-        <v>0.8450258819093364</v>
+        <v>0.8450258819093079</v>
       </c>
       <c r="F5">
-        <v>10.91587890864139</v>
+        <v>10.9158789086415</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.073458473209286</v>
+        <v>8.073458473209342</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -570,19 +570,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.7573827212264064</v>
+        <v>0.7573827212260085</v>
       </c>
       <c r="E6">
-        <v>0.838019748082985</v>
+        <v>0.8380197480829139</v>
       </c>
       <c r="F6">
-        <v>10.7952579940158</v>
+        <v>10.79525799401574</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.6806571788225781</v>
+        <v>0.6806571788225924</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.997931090732749</v>
+        <v>7.997931090732692</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,7 +602,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6036279695408666</v>
+        <v>0.6036279695403266</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -611,7 +611,7 @@
         <v>0.8216238627940413</v>
       </c>
       <c r="E7">
-        <v>0.8873722637103469</v>
+        <v>0.8873722637103185</v>
       </c>
       <c r="F7">
         <v>11.6569343419128</v>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.7019810517503302</v>
+        <v>0.7019810517503373</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.532099708013391</v>
+        <v>8.532099708013419</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7352539415609272</v>
+        <v>0.7352539415612114</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.182050925886159</v>
+        <v>1.182050925885505</v>
       </c>
       <c r="E8">
-        <v>1.134484590517729</v>
+        <v>1.134484590517715</v>
       </c>
       <c r="F8">
-        <v>16.40545377637085</v>
+        <v>16.40545377637073</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.27413388378892</v>
+        <v>11.27413388378895</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7352539415609272</v>
+        <v>0.7352539415612114</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.182050925886159</v>
+        <v>1.182050925885505</v>
       </c>
       <c r="E9">
-        <v>1.134484590517729</v>
+        <v>1.134484590517715</v>
       </c>
       <c r="F9">
-        <v>16.40545377637085</v>
+        <v>16.40545377637073</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.27413388378892</v>
+        <v>11.27413388378895</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7352539415609272</v>
+        <v>0.7352539415612114</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.182050925886159</v>
+        <v>1.182050925885505</v>
       </c>
       <c r="E10">
-        <v>1.134484590517729</v>
+        <v>1.134484590517715</v>
       </c>
       <c r="F10">
-        <v>16.40545377637085</v>
+        <v>16.40545377637073</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.27413388378892</v>
+        <v>11.27413388378895</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7352539415609272</v>
+        <v>0.7352539415612114</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.182050925886159</v>
+        <v>1.182050925885505</v>
       </c>
       <c r="E11">
-        <v>1.134484590517729</v>
+        <v>1.134484590517715</v>
       </c>
       <c r="F11">
-        <v>16.40545377637085</v>
+        <v>16.40545377637073</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.27413388378892</v>
+        <v>11.27413388378895</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7352539415609272</v>
+        <v>0.7352539415612114</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.182050925886159</v>
+        <v>1.182050925885505</v>
       </c>
       <c r="E12">
-        <v>1.134484590517729</v>
+        <v>1.134484590517715</v>
       </c>
       <c r="F12">
-        <v>16.40545377637085</v>
+        <v>16.40545377637073</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.27413388378892</v>
+        <v>11.27413388378895</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7352539415609272</v>
+        <v>0.7352539415612114</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.182050925886159</v>
+        <v>1.182050925885505</v>
       </c>
       <c r="E13">
-        <v>1.134484590517729</v>
+        <v>1.134484590517715</v>
       </c>
       <c r="F13">
-        <v>16.40545377637085</v>
+        <v>16.40545377637073</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.27413388378892</v>
+        <v>11.27413388378895</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7352539415609272</v>
+        <v>0.7352539415612114</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.182050925886159</v>
+        <v>1.182050925885505</v>
       </c>
       <c r="E14">
-        <v>1.134484590517729</v>
+        <v>1.134484590517715</v>
       </c>
       <c r="F14">
-        <v>16.40545377637085</v>
+        <v>16.40545377637073</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.27413388378892</v>
+        <v>11.27413388378895</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7352539415609272</v>
+        <v>0.7352539415612114</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.182050925886159</v>
+        <v>1.182050925885505</v>
       </c>
       <c r="E15">
-        <v>1.134484590517729</v>
+        <v>1.134484590517715</v>
       </c>
       <c r="F15">
-        <v>16.40545377637085</v>
+        <v>16.40545377637073</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.27413388378892</v>
+        <v>11.27413388378895</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7352539415609272</v>
+        <v>0.7352539415612114</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.182050925886159</v>
+        <v>1.182050925885505</v>
       </c>
       <c r="E16">
-        <v>1.134484590517729</v>
+        <v>1.134484590517715</v>
       </c>
       <c r="F16">
-        <v>16.40545377637085</v>
+        <v>16.40545377637073</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.27413388378892</v>
+        <v>11.27413388378895</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7352539415609272</v>
+        <v>0.7352539415612114</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.182050925886159</v>
+        <v>1.182050925885505</v>
       </c>
       <c r="E17">
-        <v>1.134484590517729</v>
+        <v>1.134484590517715</v>
       </c>
       <c r="F17">
-        <v>16.40545377637085</v>
+        <v>16.40545377637073</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.27413388378892</v>
+        <v>11.27413388378895</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7352539415609272</v>
+        <v>0.7352539415612114</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.182050925886159</v>
+        <v>1.182050925885505</v>
       </c>
       <c r="E18">
-        <v>1.134484590517729</v>
+        <v>1.134484590517715</v>
       </c>
       <c r="F18">
-        <v>16.40545377637085</v>
+        <v>16.40545377637073</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.27413388378892</v>
+        <v>11.27413388378895</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7352539415609272</v>
+        <v>0.7352539415612114</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.182050925886159</v>
+        <v>1.182050925885505</v>
       </c>
       <c r="E19">
-        <v>1.134484590517729</v>
+        <v>1.134484590517715</v>
       </c>
       <c r="F19">
-        <v>16.40545377637085</v>
+        <v>16.40545377637073</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.27413388378892</v>
+        <v>11.27413388378895</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7352539415609272</v>
+        <v>0.7352539415612114</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.182050925886159</v>
+        <v>1.182050925885505</v>
       </c>
       <c r="E20">
-        <v>1.134484590517729</v>
+        <v>1.134484590517715</v>
       </c>
       <c r="F20">
-        <v>16.40545377637085</v>
+        <v>16.40545377637073</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.27413388378892</v>
+        <v>11.27413388378895</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7352539415609272</v>
+        <v>0.7352539415612114</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.182050925886159</v>
+        <v>1.182050925885505</v>
       </c>
       <c r="E21">
-        <v>1.134484590517729</v>
+        <v>1.134484590517715</v>
       </c>
       <c r="F21">
-        <v>16.40545377637085</v>
+        <v>16.40545377637073</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.27413388378892</v>
+        <v>11.27413388378895</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7352539415609272</v>
+        <v>0.7352539415612114</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.182050925886159</v>
+        <v>1.182050925885505</v>
       </c>
       <c r="E22">
-        <v>1.134484590517729</v>
+        <v>1.134484590517715</v>
       </c>
       <c r="F22">
-        <v>16.40545377637085</v>
+        <v>16.40545377637073</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.27413388378892</v>
+        <v>11.27413388378895</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7352539415609272</v>
+        <v>0.7352539415612114</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.182050925886159</v>
+        <v>1.182050925885505</v>
       </c>
       <c r="E23">
-        <v>1.134484590517729</v>
+        <v>1.134484590517715</v>
       </c>
       <c r="F23">
-        <v>16.40545377637085</v>
+        <v>16.40545377637073</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.27413388378892</v>
+        <v>11.27413388378895</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7352539415609272</v>
+        <v>0.7352539415612114</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.182050925886159</v>
+        <v>1.182050925885505</v>
       </c>
       <c r="E24">
-        <v>1.134484590517729</v>
+        <v>1.134484590517715</v>
       </c>
       <c r="F24">
-        <v>16.40545377637085</v>
+        <v>16.40545377637073</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.27413388378892</v>
+        <v>11.27413388378895</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7352539415609272</v>
+        <v>0.7352539415612114</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.182050925886159</v>
+        <v>1.182050925885505</v>
       </c>
       <c r="E25">
-        <v>1.134484590517729</v>
+        <v>1.134484590517715</v>
       </c>
       <c r="F25">
-        <v>16.40545377637085</v>
+        <v>16.40545377637073</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.27413388378892</v>
+        <v>11.27413388378895</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_12/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,34 +406,37 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7716153062158071</v>
+        <v>0.7708275057142941</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.315369411869739</v>
+        <v>1.266446605538619</v>
       </c>
       <c r="E2">
-        <v>1.215685926153213</v>
+        <v>1.187442482492457</v>
       </c>
       <c r="F2">
-        <v>18.12744176811566</v>
+        <v>17.58766977865531</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0005009039153118071</v>
       </c>
       <c r="H2">
-        <v>0.8275455913752978</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.8296711555016145</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,36 +445,39 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.19388143735239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>11.97199380541809</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6670478587070363</v>
+        <v>0.6663356204902584</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9774953621356985</v>
+        <v>0.9467020962963488</v>
       </c>
       <c r="E3">
-        <v>0.999880944446673</v>
+        <v>0.9794928366294471</v>
       </c>
       <c r="F3">
-        <v>13.7278129704747</v>
+        <v>13.39735539540482</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0005569489108311578</v>
       </c>
       <c r="H3">
-        <v>0.7488388980632408</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.75072116351933</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,36 +486,39 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.767661391348867</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>9.625998330219602</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.603972704728335</v>
+        <v>0.603308080042865</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.8224041167856058</v>
+        <v>0.7981888703086781</v>
       </c>
       <c r="E4">
-        <v>0.8879602484780236</v>
+        <v>0.8702742311707397</v>
       </c>
       <c r="F4">
-        <v>11.66736984763136</v>
+        <v>11.41164205084678</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0005863337254928922</v>
       </c>
       <c r="H4">
-        <v>0.7022327655746565</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.7041448295533712</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,36 +527,39 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.538493530656922</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>8.424917912740028</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.578462026045969</v>
+        <v>0.577817570689092</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.7663532362587091</v>
+        <v>0.744361072727969</v>
       </c>
       <c r="E5">
-        <v>0.8450258819093079</v>
+        <v>0.8282268096961474</v>
       </c>
       <c r="F5">
-        <v>10.9158789086415</v>
+        <v>10.68519865892651</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0005976601144389676</v>
       </c>
       <c r="H5">
-        <v>0.6837061288890496</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.6856499038037143</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,36 +568,39 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.073458473209342</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>7.969202230464617</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5742356915143887</v>
+        <v>0.573594633285353</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.7573827212260085</v>
+        <v>0.7357404406092485</v>
       </c>
       <c r="E6">
-        <v>0.8380197480829139</v>
+        <v>0.821358891049897</v>
       </c>
       <c r="F6">
-        <v>10.79525799401574</v>
+        <v>10.56850916308423</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0005995117690512078</v>
       </c>
       <c r="H6">
-        <v>0.6806571788225924</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.6826070939674267</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,36 +609,39 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.997931090732692</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>7.895132685473357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6036279695403266</v>
+        <v>0.6029636136543388</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.8216238627940413</v>
+        <v>0.7974400337982104</v>
       </c>
       <c r="E7">
-        <v>0.8873722637103185</v>
+        <v>0.8696988826140739</v>
       </c>
       <c r="F7">
-        <v>11.6569343419128</v>
+        <v>11.40156132151304</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0005864886146126001</v>
       </c>
       <c r="H7">
-        <v>0.7019810517503373</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.703893479445</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,36 +650,39 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.532099708013419</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>8.418656455338322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7352539415612114</v>
+        <v>0.7344926528847679</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.182050925885505</v>
+        <v>1.141126243056277</v>
       </c>
       <c r="E8">
-        <v>1.134484590517715</v>
+        <v>1.109762938641666</v>
       </c>
       <c r="F8">
-        <v>16.40545377637073</v>
+        <v>15.95849641730723</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0005218653830385926</v>
       </c>
       <c r="H8">
-        <v>0.8001278398785416</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.8021023981731545</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,36 +691,39 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.27413388378895</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>11.08803770221616</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7352539415612114</v>
+        <v>0.7344926528847679</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.182050925885505</v>
+        <v>1.141126243056277</v>
       </c>
       <c r="E9">
-        <v>1.134484590517715</v>
+        <v>1.109762938641666</v>
       </c>
       <c r="F9">
-        <v>16.40545377637073</v>
+        <v>15.95849641730723</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0005218653830385926</v>
       </c>
       <c r="H9">
-        <v>0.8001278398785416</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.8021023981731545</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,36 +732,39 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.27413388378895</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>11.08803770221616</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7352539415612114</v>
+        <v>0.7344926528847679</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.182050925885505</v>
+        <v>1.141126243056277</v>
       </c>
       <c r="E10">
-        <v>1.134484590517715</v>
+        <v>1.109762938641666</v>
       </c>
       <c r="F10">
-        <v>16.40545377637073</v>
+        <v>15.95849641730723</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0005218653830385926</v>
       </c>
       <c r="H10">
-        <v>0.8001278398785416</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.8021023981731545</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,36 +773,39 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.27413388378895</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>11.08803770221616</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7352539415612114</v>
+        <v>0.7344926528847679</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.182050925885505</v>
+        <v>1.141126243056277</v>
       </c>
       <c r="E11">
-        <v>1.134484590517715</v>
+        <v>1.109762938641666</v>
       </c>
       <c r="F11">
-        <v>16.40545377637073</v>
+        <v>15.95849641730723</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0005218653830385926</v>
       </c>
       <c r="H11">
-        <v>0.8001278398785416</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.8021023981731545</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,36 +814,39 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.27413388378895</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>11.08803770221616</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7352539415612114</v>
+        <v>0.7344926528847679</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.182050925885505</v>
+        <v>1.141126243056277</v>
       </c>
       <c r="E12">
-        <v>1.134484590517715</v>
+        <v>1.109762938641666</v>
       </c>
       <c r="F12">
-        <v>16.40545377637073</v>
+        <v>15.95849641730723</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0005218653830385926</v>
       </c>
       <c r="H12">
-        <v>0.8001278398785416</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.8021023981731545</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,36 +855,39 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.27413388378895</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>11.08803770221616</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7352539415612114</v>
+        <v>0.7344926528847679</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.182050925885505</v>
+        <v>1.141126243056277</v>
       </c>
       <c r="E13">
-        <v>1.134484590517715</v>
+        <v>1.109762938641666</v>
       </c>
       <c r="F13">
-        <v>16.40545377637073</v>
+        <v>15.95849641730723</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0005218653830385926</v>
       </c>
       <c r="H13">
-        <v>0.8001278398785416</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.8021023981731545</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,36 +896,39 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.27413388378895</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>11.08803770221616</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7352539415612114</v>
+        <v>0.7344926528847679</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.182050925885505</v>
+        <v>1.141126243056277</v>
       </c>
       <c r="E14">
-        <v>1.134484590517715</v>
+        <v>1.109762938641666</v>
       </c>
       <c r="F14">
-        <v>16.40545377637073</v>
+        <v>15.95849641730723</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0005218653830385926</v>
       </c>
       <c r="H14">
-        <v>0.8001278398785416</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.8021023981731545</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,36 +937,39 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.27413388378895</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>11.08803770221616</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7352539415612114</v>
+        <v>0.7344926528847679</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.182050925885505</v>
+        <v>1.141126243056277</v>
       </c>
       <c r="E15">
-        <v>1.134484590517715</v>
+        <v>1.109762938641666</v>
       </c>
       <c r="F15">
-        <v>16.40545377637073</v>
+        <v>15.95849641730723</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0005218653830385926</v>
       </c>
       <c r="H15">
-        <v>0.8001278398785416</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.8021023981731545</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,36 +978,39 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.27413388378895</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>11.08803770221616</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7352539415612114</v>
+        <v>0.7344926528847679</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.182050925885505</v>
+        <v>1.141126243056277</v>
       </c>
       <c r="E16">
-        <v>1.134484590517715</v>
+        <v>1.109762938641666</v>
       </c>
       <c r="F16">
-        <v>16.40545377637073</v>
+        <v>15.95849641730723</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0005218653830385926</v>
       </c>
       <c r="H16">
-        <v>0.8001278398785416</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.8021023981731545</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,36 +1019,39 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.27413388378895</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>11.08803770221616</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7352539415612114</v>
+        <v>0.7344926528847679</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.182050925885505</v>
+        <v>1.141126243056277</v>
       </c>
       <c r="E17">
-        <v>1.134484590517715</v>
+        <v>1.109762938641666</v>
       </c>
       <c r="F17">
-        <v>16.40545377637073</v>
+        <v>15.95849641730723</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0005218653830385926</v>
       </c>
       <c r="H17">
-        <v>0.8001278398785416</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.8021023981731545</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,36 +1060,39 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.27413388378895</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>11.08803770221616</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7352539415612114</v>
+        <v>0.7344926528847679</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.182050925885505</v>
+        <v>1.141126243056277</v>
       </c>
       <c r="E18">
-        <v>1.134484590517715</v>
+        <v>1.109762938641666</v>
       </c>
       <c r="F18">
-        <v>16.40545377637073</v>
+        <v>15.95849641730723</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0005218653830385926</v>
       </c>
       <c r="H18">
-        <v>0.8001278398785416</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.8021023981731545</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,36 +1101,39 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.27413388378895</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>11.08803770221616</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7352539415612114</v>
+        <v>0.7344926528847679</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.182050925885505</v>
+        <v>1.141126243056277</v>
       </c>
       <c r="E19">
-        <v>1.134484590517715</v>
+        <v>1.109762938641666</v>
       </c>
       <c r="F19">
-        <v>16.40545377637073</v>
+        <v>15.95849641730723</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0005218653830385926</v>
       </c>
       <c r="H19">
-        <v>0.8001278398785416</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.8021023981731545</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,36 +1142,39 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.27413388378895</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>11.08803770221616</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7352539415612114</v>
+        <v>0.7344926528847679</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.182050925885505</v>
+        <v>1.141126243056277</v>
       </c>
       <c r="E20">
-        <v>1.134484590517715</v>
+        <v>1.109762938641666</v>
       </c>
       <c r="F20">
-        <v>16.40545377637073</v>
+        <v>15.95849641730723</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0005218653830385926</v>
       </c>
       <c r="H20">
-        <v>0.8001278398785416</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.8021023981731545</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,36 +1183,39 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.27413388378895</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>11.08803770221616</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7352539415612114</v>
+        <v>0.7344926528847679</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.182050925885505</v>
+        <v>1.141126243056277</v>
       </c>
       <c r="E21">
-        <v>1.134484590517715</v>
+        <v>1.109762938641666</v>
       </c>
       <c r="F21">
-        <v>16.40545377637073</v>
+        <v>15.95849641730723</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0005218653830385926</v>
       </c>
       <c r="H21">
-        <v>0.8001278398785416</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.8021023981731545</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,36 +1224,39 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.27413388378895</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>11.08803770221616</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7352539415612114</v>
+        <v>0.7344926528847679</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.182050925885505</v>
+        <v>1.141126243056277</v>
       </c>
       <c r="E22">
-        <v>1.134484590517715</v>
+        <v>1.109762938641666</v>
       </c>
       <c r="F22">
-        <v>16.40545377637073</v>
+        <v>15.95849641730723</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0005218653830385926</v>
       </c>
       <c r="H22">
-        <v>0.8001278398785416</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.8021023981731545</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,36 +1265,39 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.27413388378895</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>11.08803770221616</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7352539415612114</v>
+        <v>0.7344926528847679</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.182050925885505</v>
+        <v>1.141126243056277</v>
       </c>
       <c r="E23">
-        <v>1.134484590517715</v>
+        <v>1.109762938641666</v>
       </c>
       <c r="F23">
-        <v>16.40545377637073</v>
+        <v>15.95849641730723</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0005218653830385926</v>
       </c>
       <c r="H23">
-        <v>0.8001278398785416</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.8021023981731545</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,36 +1306,39 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.27413388378895</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>11.08803770221616</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7352539415612114</v>
+        <v>0.7344926528847679</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.182050925885505</v>
+        <v>1.141126243056277</v>
       </c>
       <c r="E24">
-        <v>1.134484590517715</v>
+        <v>1.109762938641666</v>
       </c>
       <c r="F24">
-        <v>16.40545377637073</v>
+        <v>15.95849641730723</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0005218653830385926</v>
       </c>
       <c r="H24">
-        <v>0.8001278398785416</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.8021023981731545</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,36 +1347,39 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.27413388378895</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>11.08803770221616</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7352539415612114</v>
+        <v>0.7344926528847679</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.182050925885505</v>
+        <v>1.141126243056277</v>
       </c>
       <c r="E25">
-        <v>1.134484590517715</v>
+        <v>1.109762938641666</v>
       </c>
       <c r="F25">
-        <v>16.40545377637073</v>
+        <v>15.95849641730723</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0005218653830385926</v>
       </c>
       <c r="H25">
-        <v>0.8001278398785416</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.8021023981731545</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1388,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.27413388378895</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>11.08803770221616</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_12/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7708275057142941</v>
+        <v>0.273479491953097</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.266446605538619</v>
+        <v>0.04172396665520495</v>
       </c>
       <c r="E2">
-        <v>1.187442482492457</v>
+        <v>1.691531554914889</v>
       </c>
       <c r="F2">
-        <v>17.58766977865531</v>
+        <v>2.548346001764529</v>
       </c>
       <c r="G2">
-        <v>0.0005009039153118071</v>
+        <v>0.0006715156536457338</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8296711555016145</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11.9302240484333</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>11.97199380541809</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>2.055301638040461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6663356204902584</v>
+        <v>0.23834849124718</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9467020962963488</v>
+        <v>0.02881376558112336</v>
       </c>
       <c r="E3">
-        <v>0.9794928366294471</v>
+        <v>1.412294375320755</v>
       </c>
       <c r="F3">
-        <v>13.39735539540482</v>
+        <v>2.090024037239658</v>
       </c>
       <c r="G3">
-        <v>0.0005569489108311578</v>
+        <v>0.0006900307413919076</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.75072116351933</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.22779451132712</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>9.625998330219602</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.675832230634597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.603308080042865</v>
+        <v>0.2170825377673538</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.7981888703086781</v>
+        <v>0.02239351022299729</v>
       </c>
       <c r="E4">
-        <v>0.8702742311707397</v>
+        <v>1.251930517438609</v>
       </c>
       <c r="F4">
-        <v>11.41164205084678</v>
+        <v>1.835652877063964</v>
       </c>
       <c r="G4">
-        <v>0.0005863337254928922</v>
+        <v>0.0007012985291543193</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.7041448295533712</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>9.212612435699015</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>8.424917912740028</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.466608303007789</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.577817570689092</v>
+        <v>0.2084816916588181</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.744361072727969</v>
+        <v>0.02007851592418319</v>
       </c>
       <c r="E5">
-        <v>0.8282268096961474</v>
+        <v>1.18875175161979</v>
       </c>
       <c r="F5">
-        <v>10.68519865892651</v>
+        <v>1.737473868214522</v>
       </c>
       <c r="G5">
-        <v>0.0005976601144389676</v>
+        <v>0.0007058847586276745</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6856499038037143</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>8.804788877584713</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>7.969202230464617</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.386161335718839</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.573594633285353</v>
+        <v>0.2070571642164794</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.7357404406092485</v>
+        <v>0.01971038924879664</v>
       </c>
       <c r="E6">
-        <v>0.821358891049897</v>
+        <v>1.178376802139979</v>
       </c>
       <c r="F6">
-        <v>10.56850916308423</v>
+        <v>1.721469156289643</v>
       </c>
       <c r="G6">
-        <v>0.0005995117690512078</v>
+        <v>0.0007066464644160402</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6826070939674267</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>8.737381705928811</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>7.895132685473357</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.373064743296496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6029636136543388</v>
+        <v>0.2169662935835959</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.7974400337982104</v>
+        <v>0.02236115841737174</v>
       </c>
       <c r="E7">
-        <v>0.8696988826140739</v>
+        <v>1.251070384599913</v>
       </c>
       <c r="F7">
-        <v>11.40156132151304</v>
+        <v>1.834308145443686</v>
       </c>
       <c r="G7">
-        <v>0.0005864886146126001</v>
+        <v>0.0007013603798523751</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.703893479445</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>9.207090597630753</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>8.418656455338322</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.465505225741268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7344926528847679</v>
+        <v>0.261295649139683</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.141126243056277</v>
+        <v>0.03690654781280145</v>
       </c>
       <c r="E8">
-        <v>1.109762938641666</v>
+        <v>1.59252398212503</v>
       </c>
       <c r="F8">
-        <v>15.95849641730723</v>
+        <v>2.383805132348087</v>
       </c>
       <c r="G8">
-        <v>0.0005218653830385926</v>
+        <v>0.0006779339955423768</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.8021023981731545</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>11.33582380897619</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>11.08803770221616</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.918733245045033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7344926528847679</v>
+        <v>0.3512820782158883</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.141126243056277</v>
+        <v>0.08238510959340317</v>
       </c>
       <c r="E9">
-        <v>1.109762938641666</v>
+        <v>2.390214209556561</v>
       </c>
       <c r="F9">
-        <v>15.95849641730723</v>
+        <v>3.759027202851229</v>
       </c>
       <c r="G9">
-        <v>0.0005218653830385926</v>
+        <v>0.0006299541275235631</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8021023981731545</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>15.8543282664491</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>11.08803770221616</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>3.069566243917393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7344926528847679</v>
+        <v>0.4204685491159665</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.141126243056277</v>
+        <v>0.1375982187683107</v>
       </c>
       <c r="E10">
-        <v>1.109762938641666</v>
+        <v>3.147678282946757</v>
       </c>
       <c r="F10">
-        <v>15.95849641730723</v>
+        <v>5.135518663683058</v>
       </c>
       <c r="G10">
-        <v>0.0005218653830385926</v>
+        <v>0.0005907045119834826</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8021023981731545</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>19.61047177765761</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>11.08803770221616</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>4.238467516720135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7344926528847679</v>
+        <v>0.4530523942954545</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.141126243056277</v>
+        <v>0.172822119383369</v>
       </c>
       <c r="E11">
-        <v>1.109762938641666</v>
+        <v>3.57429183189555</v>
       </c>
       <c r="F11">
-        <v>15.95849641730723</v>
+        <v>5.924560288716521</v>
       </c>
       <c r="G11">
-        <v>0.0005218653830385926</v>
+        <v>0.000570738415209715</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8021023981731545</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>21.51228854246864</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>11.08803770221616</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>4.914563475452567</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7344926528847679</v>
+        <v>0.465615838802762</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.141126243056277</v>
+        <v>0.1885774562766969</v>
       </c>
       <c r="E12">
-        <v>1.109762938641666</v>
+        <v>3.755882983709228</v>
       </c>
       <c r="F12">
-        <v>15.95849641730723</v>
+        <v>6.261291237610607</v>
       </c>
       <c r="G12">
-        <v>0.0005218653830385926</v>
+        <v>0.0005626573112231937</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8021023981731545</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>22.2768185757804</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>11.08803770221616</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>5.204290800975897</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7344926528847679</v>
+        <v>0.4628985462904467</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.141126243056277</v>
+        <v>0.18505159668657</v>
       </c>
       <c r="E13">
-        <v>1.109762938641666</v>
+        <v>3.715663497303808</v>
       </c>
       <c r="F13">
-        <v>15.95849641730723</v>
+        <v>6.186709272612347</v>
       </c>
       <c r="G13">
-        <v>0.0005218653830385926</v>
+        <v>0.0005644264597703952</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8021023981731545</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>22.10977084661278</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>11.08803770221616</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>5.140060146167656</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7344926528847679</v>
+        <v>0.4540809614494066</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.141126243056277</v>
+        <v>0.1740612474434542</v>
       </c>
       <c r="E14">
-        <v>1.109762938641666</v>
+        <v>3.588754724411572</v>
       </c>
       <c r="F14">
-        <v>15.95849641730723</v>
+        <v>5.951374653920226</v>
       </c>
       <c r="G14">
-        <v>0.0005218653830385926</v>
+        <v>0.0005700859282542411</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8021023981731545</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>21.57415350772925</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>11.08803770221616</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>4.937609412764132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7344926528847679</v>
+        <v>0.4487118542792103</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.141126243056277</v>
+        <v>0.1676868597138395</v>
       </c>
       <c r="E15">
-        <v>1.109762938641666</v>
+        <v>3.514000547061471</v>
       </c>
       <c r="F15">
-        <v>15.95849641730723</v>
+        <v>5.812802776292898</v>
       </c>
       <c r="G15">
-        <v>0.0005218653830385926</v>
+        <v>0.0005734752208154918</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8021023981731545</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>21.25256628056303</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>11.08803770221616</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>4.818560283670195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7344926528847679</v>
+        <v>0.4183661523601216</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.141126243056277</v>
+        <v>0.1355654789155309</v>
       </c>
       <c r="E16">
-        <v>1.109762938641666</v>
+        <v>3.122007181070103</v>
       </c>
       <c r="F16">
-        <v>15.95849641730723</v>
+        <v>5.088231070133418</v>
       </c>
       <c r="G16">
-        <v>0.0005218653830385926</v>
+        <v>0.0005919519347842419</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8021023981731545</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>19.49122336100748</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>11.08803770221616</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>4.19807960350316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7344926528847679</v>
+        <v>0.4000698175130992</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.141126243056277</v>
+        <v>0.1189285698157079</v>
       </c>
       <c r="E17">
-        <v>1.109762938641666</v>
+        <v>2.906591054670827</v>
       </c>
       <c r="F17">
-        <v>15.95849641730723</v>
+        <v>4.692776306709987</v>
       </c>
       <c r="G17">
-        <v>0.0005218653830385926</v>
+        <v>0.0006026367871405447</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8021023981731545</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>18.46866002580595</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>11.08803770221616</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>3.860937559637364</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7344926528847679</v>
+        <v>0.3896455826964313</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.141126243056277</v>
+        <v>0.1102298857963007</v>
       </c>
       <c r="E18">
-        <v>1.109762938641666</v>
+        <v>2.789716203642485</v>
       </c>
       <c r="F18">
-        <v>15.95849641730723</v>
+        <v>4.479439043722948</v>
       </c>
       <c r="G18">
-        <v>0.0005218653830385926</v>
+        <v>0.0006086018124572302</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8021023981731545</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>17.89731191171904</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>11.08803770221616</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>3.679528402440098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7344926528847679</v>
+        <v>0.3861317620193034</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.141126243056277</v>
+        <v>0.1074154535640588</v>
       </c>
       <c r="E19">
-        <v>1.109762938641666</v>
+        <v>2.751194197771625</v>
       </c>
       <c r="F19">
-        <v>15.95849641730723</v>
+        <v>4.40934442178218</v>
       </c>
       <c r="G19">
-        <v>0.0005218653830385926</v>
+        <v>0.0006105947216614086</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8021023981731545</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>17.70641497982274</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>11.08803770221616</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>3.619998776511011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7344926528847679</v>
+        <v>0.4020068608287062</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.141126243056277</v>
+        <v>0.1206047799662286</v>
       </c>
       <c r="E20">
-        <v>1.109762938641666</v>
+        <v>2.928755405049529</v>
       </c>
       <c r="F20">
-        <v>15.95849641730723</v>
+        <v>4.733339559180507</v>
       </c>
       <c r="G20">
-        <v>0.0005218653830385926</v>
+        <v>0.0006015191390660251</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8021023981731545</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>18.57569043292722</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>11.08803770221616</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>3.895468081246079</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7344926528847679</v>
+        <v>0.4566640615376656</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.141126243056277</v>
+        <v>0.1772117672678988</v>
       </c>
       <c r="E21">
-        <v>1.109762938641666</v>
+        <v>3.625382518635462</v>
       </c>
       <c r="F21">
-        <v>15.95849641730723</v>
+        <v>6.019289854169415</v>
       </c>
       <c r="G21">
-        <v>0.0005218653830385926</v>
+        <v>0.0005684404020241951</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8021023981731545</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>21.73007248102175</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>11.08803770221616</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>4.995999842741853</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7344926528847679</v>
+        <v>0.4937699923428056</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.141126243056277</v>
+        <v>0.2296371325659621</v>
       </c>
       <c r="E22">
-        <v>1.109762938641666</v>
+        <v>4.209393099101362</v>
       </c>
       <c r="F22">
-        <v>15.95849641730723</v>
+        <v>7.100495967748884</v>
       </c>
       <c r="G22">
-        <v>0.0005218653830385926</v>
+        <v>0.0005434934272755376</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8021023981731545</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>24.07189945471652</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>11.08803770221616</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>5.929273763885107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7344926528847679</v>
+        <v>0.4738027005067948</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.141126243056277</v>
+        <v>0.199627139175675</v>
       </c>
       <c r="E23">
-        <v>1.109762938641666</v>
+        <v>3.880494943776782</v>
       </c>
       <c r="F23">
-        <v>15.95849641730723</v>
+        <v>6.492291986454575</v>
       </c>
       <c r="G23">
-        <v>0.0005218653830385926</v>
+        <v>0.000557249296709198</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8021023981731545</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>22.7861960900172</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>11.08803770221616</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>5.403441543814594</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7344926528847679</v>
+        <v>0.4011308331516403</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.141126243056277</v>
+        <v>0.1198443260341051</v>
       </c>
       <c r="E24">
-        <v>1.109762938641666</v>
+        <v>2.918713683874856</v>
       </c>
       <c r="F24">
-        <v>15.95849641730723</v>
+        <v>4.714958147682125</v>
       </c>
       <c r="G24">
-        <v>0.0005218653830385926</v>
+        <v>0.0006020249684407728</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8021023981731545</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>18.52725150139281</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>11.08803770221616</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>3.879818943671481</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7344926528847679</v>
+        <v>0.3265073671890661</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.141126243056277</v>
+        <v>0.06739306819744684</v>
       </c>
       <c r="E25">
-        <v>1.109762938641666</v>
+        <v>2.153659969130018</v>
       </c>
       <c r="F25">
-        <v>15.95849641730723</v>
+        <v>3.340785088420432</v>
       </c>
       <c r="G25">
-        <v>0.0005218653830385926</v>
+        <v>0.0006433666992557438</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8021023981731545</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>14.57717674826901</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>11.08803770221616</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2.717494053232954</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_12/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.273479491953097</v>
+        <v>1.376260511920094</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04172396665520495</v>
+        <v>0.02562128329375923</v>
       </c>
       <c r="E2">
-        <v>1.691531554914889</v>
+        <v>0.09043240342183978</v>
       </c>
       <c r="F2">
-        <v>2.548346001764529</v>
+        <v>0.5705146521282032</v>
       </c>
       <c r="G2">
-        <v>0.0006715156536457338</v>
+        <v>0.499522464917348</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.2573475922104791</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.791676950961744</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.9302240484333</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>4.232220025445784</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.055301638040461</v>
+        <v>1.552182462265989</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.23834849124718</v>
+        <v>1.196366976530356</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02881376558112336</v>
+        <v>0.02234962501026416</v>
       </c>
       <c r="E3">
-        <v>1.412294375320755</v>
+        <v>0.08044658498483415</v>
       </c>
       <c r="F3">
-        <v>2.090024037239658</v>
+        <v>0.4955758434317588</v>
       </c>
       <c r="G3">
-        <v>0.0006900307413919076</v>
+        <v>0.4298766684550799</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.2304053678062417</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.451475525117445</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.22779451132712</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>3.685817735877066</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.675832230634597</v>
+        <v>1.347734902646039</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2170825377673538</v>
+        <v>1.086217416184752</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02239351022299729</v>
+        <v>0.02033450679370574</v>
       </c>
       <c r="E4">
-        <v>1.251930517438609</v>
+        <v>0.07527630509642336</v>
       </c>
       <c r="F4">
-        <v>1.835652877063964</v>
+        <v>0.4506492786179592</v>
       </c>
       <c r="G4">
-        <v>0.0007012985291543193</v>
+        <v>0.3881372855889538</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.2144826071039603</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.244502501041893</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.212612435699015</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>3.350446463257612</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.466608303007789</v>
+        <v>1.225659271591724</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2084816916588181</v>
+        <v>1.041383634397107</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02007851592418319</v>
+        <v>0.01951175703633368</v>
       </c>
       <c r="E5">
-        <v>1.18875175161979</v>
+        <v>0.07339040339632419</v>
       </c>
       <c r="F5">
-        <v>1.737473868214522</v>
+        <v>0.4325861386757239</v>
       </c>
       <c r="G5">
-        <v>0.0007058847586276745</v>
+        <v>0.3713564052443132</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.2081365081192672</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.16058151336631</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.804788877584713</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.213762545085459</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.386161335718839</v>
+        <v>1.176691930056705</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2070571642164794</v>
+        <v>1.033941562599637</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01971038924879664</v>
+        <v>0.01937504557570691</v>
       </c>
       <c r="E6">
-        <v>1.178376802139979</v>
+        <v>0.07309002964129263</v>
       </c>
       <c r="F6">
-        <v>1.721469156289643</v>
+        <v>0.4296007572428238</v>
       </c>
       <c r="G6">
-        <v>0.0007066464644160402</v>
+        <v>0.368582921937417</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.2070909791608671</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.14667037752595</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.737381705928811</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>3.191063917132595</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.373064743296496</v>
+        <v>1.168605502498565</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2169662935835959</v>
+        <v>1.08561258744092</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02236115841737174</v>
+        <v>0.02032341724919462</v>
       </c>
       <c r="E7">
-        <v>1.251070384599913</v>
+        <v>0.07525000224989142</v>
       </c>
       <c r="F7">
-        <v>1.834308145443686</v>
+        <v>0.4504047178188983</v>
       </c>
       <c r="G7">
-        <v>0.0007013603798523751</v>
+        <v>0.3879100857296436</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.2143964612053963</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.243369077666756</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.207090597630753</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>3.34860322676893</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.465505225741268</v>
+        <v>1.224995839290614</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.261295649139683</v>
+        <v>1.314154764772439</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03690654781280145</v>
+        <v>0.0244945296446204</v>
       </c>
       <c r="E8">
-        <v>1.59252398212503</v>
+        <v>0.08677685093652698</v>
       </c>
       <c r="F8">
-        <v>2.383805132348087</v>
+        <v>0.5444327120832639</v>
       </c>
       <c r="G8">
-        <v>0.0006779339955423768</v>
+        <v>0.4752780970322021</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.2479209788262153</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.673941745572776</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.33582380897619</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>4.043764652987988</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.918733245045033</v>
+        <v>1.480915961643319</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3512820782158883</v>
+        <v>1.765946986823536</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.08238510959340317</v>
+        <v>0.03262416632377807</v>
       </c>
       <c r="E9">
-        <v>2.390214209556561</v>
+        <v>0.118035996211141</v>
       </c>
       <c r="F9">
-        <v>3.759027202851229</v>
+        <v>0.7388158214508564</v>
       </c>
       <c r="G9">
-        <v>0.0006299541275235631</v>
+        <v>0.6561410428825951</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.3192280773367457</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.536410873027108</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.8543282664491</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>5.410426322214136</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.069566243917393</v>
+        <v>2.014550270070544</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4204685491159665</v>
+        <v>2.101937305461092</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1375982187683107</v>
+        <v>0.0385679050367429</v>
       </c>
       <c r="E10">
-        <v>3.147678282946757</v>
+        <v>0.1478821006259317</v>
       </c>
       <c r="F10">
-        <v>5.135518663683058</v>
+        <v>0.8897985425671351</v>
       </c>
       <c r="G10">
-        <v>0.0005907045119834826</v>
+        <v>0.7969693717344342</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.3759875703174771</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4.18568935941957</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>19.61047177765761</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>6.420574982267823</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.238467516720135</v>
+        <v>2.43255789683073</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4530523942954545</v>
+        <v>2.256129121630011</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.172822119383369</v>
+        <v>0.0412660396103206</v>
       </c>
       <c r="E11">
-        <v>3.57429183189555</v>
+        <v>0.1633657989620794</v>
       </c>
       <c r="F11">
-        <v>5.924560288716521</v>
+        <v>0.9607667294471156</v>
       </c>
       <c r="G11">
-        <v>0.000570738415209715</v>
+        <v>0.8632857852983875</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.402997685247712</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.485601748957066</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.51228854246864</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>6.882443396563076</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.914563475452567</v>
+        <v>2.629967818554974</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.465615838802762</v>
+        <v>2.314753342273036</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1885774562766969</v>
+        <v>0.04228697408360205</v>
       </c>
       <c r="E12">
-        <v>3.755882983709228</v>
+        <v>0.1695428166425401</v>
       </c>
       <c r="F12">
-        <v>6.261291237610607</v>
+        <v>0.9880157878939713</v>
       </c>
       <c r="G12">
-        <v>0.0005626573112231937</v>
+        <v>0.8887702567257776</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.4134188989893204</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.599931066752447</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>22.2768185757804</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.057771591138504</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>5.204290800975897</v>
+        <v>2.705913687553533</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4628985462904467</v>
+        <v>2.302116410173937</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.18505159668657</v>
+        <v>0.04206713214159663</v>
       </c>
       <c r="E13">
-        <v>3.715663497303808</v>
+        <v>0.1681978514740443</v>
       </c>
       <c r="F13">
-        <v>6.186709272612347</v>
+        <v>0.9821297556439106</v>
       </c>
       <c r="G13">
-        <v>0.0005644264597703952</v>
+        <v>0.8832643678449301</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.4111655451213068</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.575272669544432</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>22.10977084661278</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.019990899772722</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>5.140060146167656</v>
+        <v>2.689501913254475</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4540809614494066</v>
+        <v>2.260947208656262</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1740612474434542</v>
+        <v>0.04135004813661425</v>
       </c>
       <c r="E14">
-        <v>3.588754724411572</v>
+        <v>0.1638674551864412</v>
       </c>
       <c r="F14">
-        <v>5.951374653920226</v>
+        <v>0.9630007306364092</v>
       </c>
       <c r="G14">
-        <v>0.0005700859282542411</v>
+        <v>0.8653746641435305</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.4038510421105457</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4.494991843408428</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.57415350772925</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.896858602594818</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.937609412764132</v>
+        <v>2.636191165444188</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4487118542792103</v>
+        <v>2.235761797037014</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1676868597138395</v>
+        <v>0.04091071160095083</v>
       </c>
       <c r="E15">
-        <v>3.514000547061471</v>
+        <v>0.1612570702009215</v>
       </c>
       <c r="F15">
-        <v>5.812802776292898</v>
+        <v>0.9513339279070294</v>
       </c>
       <c r="G15">
-        <v>0.0005734752208154918</v>
+        <v>0.854466634597344</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.3993965285561814</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.44591964271811</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>21.25256628056303</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.821495220596574</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.818560283670195</v>
+        <v>2.603696518815951</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4183661523601216</v>
+        <v>2.091891073725492</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1355654789155309</v>
+        <v>0.03839146310896524</v>
       </c>
       <c r="E16">
-        <v>3.122007181070103</v>
+        <v>0.1469118363380701</v>
       </c>
       <c r="F16">
-        <v>5.088231070133418</v>
+        <v>0.8852104543344268</v>
       </c>
       <c r="G16">
-        <v>0.0005919519347842419</v>
+        <v>0.7926847665204662</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.3742481705767631</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4.166189669831226</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>19.49122336100748</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.390445581477024</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.19807960350316</v>
+        <v>2.419815008417203</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4000698175130992</v>
+        <v>2.004004471391056</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1189285698157079</v>
+        <v>0.03684454266795001</v>
       </c>
       <c r="E17">
-        <v>2.906591054670827</v>
+        <v>0.13862641944554</v>
       </c>
       <c r="F17">
-        <v>4.692776306709987</v>
+        <v>0.8452628143310648</v>
       </c>
       <c r="G17">
-        <v>0.0006026367871405447</v>
+        <v>0.7553933145682663</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.3591402229140357</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.995821376054124</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.46866002580595</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.126673362706242</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.860937559637364</v>
+        <v>2.308968848781006</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3896455826964313</v>
+        <v>1.953578618287622</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1102298857963007</v>
+        <v>0.03595425582189904</v>
       </c>
       <c r="E18">
-        <v>2.789716203642485</v>
+        <v>0.1340376820373983</v>
       </c>
       <c r="F18">
-        <v>4.479439043722948</v>
+        <v>0.8224980863639502</v>
       </c>
       <c r="G18">
-        <v>0.0006086018124572302</v>
+        <v>0.7341531885008266</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.3505611025226614</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.898251679183034</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.89731191171904</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>5.975173401519044</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.679528402440098</v>
+        <v>2.245886435117967</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3861317620193034</v>
+        <v>1.936525427790741</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1074154535640588</v>
+        <v>0.03565272668902963</v>
       </c>
       <c r="E19">
-        <v>2.751194197771625</v>
+        <v>0.1325132570675258</v>
       </c>
       <c r="F19">
-        <v>4.40934442178218</v>
+        <v>0.8148254263300032</v>
       </c>
       <c r="G19">
-        <v>0.0006105947216614086</v>
+        <v>0.7269961431136949</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.3476747146672068</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.865285661431756</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.70641497982274</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>5.923912402698903</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.619998776511011</v>
+        <v>2.224639190949972</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4020068608287062</v>
+        <v>2.013347009996323</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1206047799662286</v>
+        <v>0.03700927061039039</v>
       </c>
       <c r="E20">
-        <v>2.928755405049529</v>
+        <v>0.1394898457928377</v>
       </c>
       <c r="F20">
-        <v>4.733339559180507</v>
+        <v>0.8494930355698784</v>
       </c>
       <c r="G20">
-        <v>0.0006015191390660251</v>
+        <v>0.7593410969122658</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.3607368934934527</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>4.013913010736815</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.57569043292722</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>6.154729502043381</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.895468081246079</v>
+        <v>2.320697895828602</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4566640615376656</v>
+        <v>2.273032871107603</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1772117672678988</v>
+        <v>0.04156069425314257</v>
       </c>
       <c r="E21">
-        <v>3.625382518635462</v>
+        <v>0.1651305446410625</v>
       </c>
       <c r="F21">
-        <v>6.019289854169415</v>
+        <v>0.9686088223463969</v>
       </c>
       <c r="G21">
-        <v>0.0005684404020241951</v>
+        <v>0.8706188062258633</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.4059940636602306</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.518550784240659</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>21.73007248102175</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>6.933013131344893</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.995999842741853</v>
+        <v>2.65181625408556</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4937699923428056</v>
+        <v>2.444145182115676</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2296371325659621</v>
+        <v>0.04453072731177343</v>
       </c>
       <c r="E22">
-        <v>4.209393099101362</v>
+        <v>0.1837386538712273</v>
       </c>
       <c r="F22">
-        <v>7.100495967748884</v>
+        <v>1.048668068268327</v>
       </c>
       <c r="G22">
-        <v>0.0005434934272755376</v>
+        <v>0.9455384950620811</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.4367093475193542</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.852841075264308</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>24.07189945471652</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>7.444214953624964</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>5.929273763885107</v>
+        <v>2.875242374625827</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4738027005067948</v>
+        <v>2.352677203670396</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.199627139175675</v>
+        <v>0.04294597146385826</v>
       </c>
       <c r="E23">
-        <v>3.880494943776782</v>
+        <v>0.1736234429895802</v>
       </c>
       <c r="F23">
-        <v>6.492291986454575</v>
+        <v>1.005720247012675</v>
       </c>
       <c r="G23">
-        <v>0.000557249296709198</v>
+        <v>0.9053347050016072</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.4202041609396758</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.673976793070295</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>22.7861960900172</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.17111084494698</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>5.403441543814594</v>
+        <v>2.755300679815804</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4011308331516403</v>
+        <v>2.009122935758057</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1198443260341051</v>
+        <v>0.03693480004277205</v>
       </c>
       <c r="E24">
-        <v>2.918713683874856</v>
+        <v>0.139098949640811</v>
       </c>
       <c r="F24">
-        <v>4.714958147682125</v>
+        <v>0.8475799277374136</v>
       </c>
       <c r="G24">
-        <v>0.0006020249684407728</v>
+        <v>0.7575556875349605</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.3600147081989746</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>4.00573261523752</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.52725150139281</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>6.142044872827881</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.879818943671481</v>
+        <v>2.315393197106005</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3265073671890661</v>
+        <v>1.643156640149698</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.06739306819744684</v>
+        <v>0.03043011995462308</v>
       </c>
       <c r="E25">
-        <v>2.153659969130018</v>
+        <v>0.1084983460828646</v>
       </c>
       <c r="F25">
-        <v>3.340785088420432</v>
+        <v>0.6849558549464092</v>
       </c>
       <c r="G25">
-        <v>0.0006433666992557438</v>
+        <v>0.6059822554127834</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.2992457823388719</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.300704804201288</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.57717674826901</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>5.039955635296508</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.717494053232954</v>
+        <v>1.866140285856545</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_12/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.376260511920094</v>
+        <v>0.4927675928165911</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02562128329375923</v>
+        <v>0.009140987240385812</v>
       </c>
       <c r="E2">
-        <v>0.09043240342183978</v>
+        <v>0.09638581504330546</v>
       </c>
       <c r="F2">
-        <v>0.5705146521282032</v>
+        <v>0.3212188075540041</v>
       </c>
       <c r="G2">
-        <v>0.499522464917348</v>
+        <v>0.2049276593427862</v>
       </c>
       <c r="H2">
-        <v>0.2573475922104791</v>
+        <v>0.3008942488266513</v>
       </c>
       <c r="I2">
-        <v>2.791676950961744</v>
+        <v>1.132485420188019</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>4.232220025445784</v>
+        <v>1.432321805107307</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.552182462265989</v>
+        <v>0.9182964999054093</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.196366976530356</v>
+        <v>0.4329642906879485</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02234962501026416</v>
+        <v>0.008086000681259975</v>
       </c>
       <c r="E3">
-        <v>0.08044658498483415</v>
+        <v>0.09786825833404933</v>
       </c>
       <c r="F3">
-        <v>0.4955758434317588</v>
+        <v>0.3054797143202919</v>
       </c>
       <c r="G3">
-        <v>0.4298766684550799</v>
+        <v>0.1893833530526194</v>
       </c>
       <c r="H3">
-        <v>0.2304053678062417</v>
+        <v>0.2977200459642262</v>
       </c>
       <c r="I3">
-        <v>2.451475525117445</v>
+        <v>1.026373579380177</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>3.685817735877066</v>
+        <v>1.252898307377208</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.347734902646039</v>
+        <v>0.8783809609745674</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.086217416184752</v>
+        <v>0.3960877178337228</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02033450679370574</v>
+        <v>0.007436720435912036</v>
       </c>
       <c r="E4">
-        <v>0.07527630509642336</v>
+        <v>0.09906192152865145</v>
       </c>
       <c r="F4">
-        <v>0.4506492786179592</v>
+        <v>0.296108005691238</v>
       </c>
       <c r="G4">
-        <v>0.3881372855889538</v>
+        <v>0.1800417492896429</v>
       </c>
       <c r="H4">
-        <v>0.2144826071039603</v>
+        <v>0.2960092709603401</v>
       </c>
       <c r="I4">
-        <v>2.244502501041893</v>
+        <v>0.9615371276990601</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>3.350446463257612</v>
+        <v>1.142240772238551</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.225659271591724</v>
+        <v>0.8547894254240873</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.041383634397107</v>
+        <v>0.3810214938868057</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01951175703633368</v>
+        <v>0.007171783524981379</v>
       </c>
       <c r="E5">
-        <v>0.07339040339632419</v>
+        <v>0.09961920259038948</v>
       </c>
       <c r="F5">
-        <v>0.4325861386757239</v>
+        <v>0.2923619338133534</v>
       </c>
       <c r="G5">
-        <v>0.3713564052443132</v>
+        <v>0.1762853024405899</v>
       </c>
       <c r="H5">
-        <v>0.2081365081192672</v>
+        <v>0.2953718103503178</v>
       </c>
       <c r="I5">
-        <v>2.16058151336631</v>
+        <v>0.9351975914198078</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>3.213762545085459</v>
+        <v>1.097027049475543</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.176691930056705</v>
+        <v>0.8454044460618491</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.033941562599637</v>
+        <v>0.3785174438621652</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01937504557570691</v>
+        <v>0.007127770726196303</v>
       </c>
       <c r="E6">
-        <v>0.07309002964129263</v>
+        <v>0.09971600594746022</v>
       </c>
       <c r="F6">
-        <v>0.4296007572428238</v>
+        <v>0.2917442946282804</v>
       </c>
       <c r="G6">
-        <v>0.368582921937417</v>
+        <v>0.1756645688524827</v>
       </c>
       <c r="H6">
-        <v>0.2070909791608671</v>
+        <v>0.2952695599473572</v>
       </c>
       <c r="I6">
-        <v>2.14667037752595</v>
+        <v>0.9308289417169817</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>3.191063917132595</v>
+        <v>1.089512210258718</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.168605502498565</v>
+        <v>0.8438598424241661</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.08561258744092</v>
+        <v>0.3958846851888609</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02032341724919462</v>
+        <v>0.007433148779128373</v>
       </c>
       <c r="E7">
-        <v>0.07525000224989142</v>
+        <v>0.09906915088799195</v>
       </c>
       <c r="F7">
-        <v>0.4504047178188983</v>
+        <v>0.2960571900315969</v>
       </c>
       <c r="G7">
-        <v>0.3879100857296436</v>
+        <v>0.1799908855723231</v>
       </c>
       <c r="H7">
-        <v>0.2143964612053963</v>
+        <v>0.296000432515811</v>
       </c>
       <c r="I7">
-        <v>2.243369077666756</v>
+        <v>0.9611815691098116</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>3.34860322676893</v>
+        <v>1.141631484803099</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.224995839290614</v>
+        <v>0.8546619324019957</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.314154764772439</v>
+        <v>0.4721804648393686</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0244945296446204</v>
+        <v>0.008777560289772168</v>
       </c>
       <c r="E8">
-        <v>0.08677685093652698</v>
+        <v>0.09683787926031329</v>
       </c>
       <c r="F8">
-        <v>0.5444327120832639</v>
+        <v>0.3157310306950336</v>
       </c>
       <c r="G8">
-        <v>0.4752780970322021</v>
+        <v>0.1995255370700448</v>
       </c>
       <c r="H8">
-        <v>0.2479209788262153</v>
+        <v>0.2997502216866366</v>
       </c>
       <c r="I8">
-        <v>2.673941745572776</v>
+        <v>1.095833607232933</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>4.043764652987988</v>
+        <v>1.370560487283441</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.480915961643319</v>
+        <v>0.9043422715638485</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.765946986823536</v>
+        <v>0.6205236852527776</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03262416632377807</v>
+        <v>0.01140070335514309</v>
       </c>
       <c r="E9">
-        <v>0.118035996211141</v>
+        <v>0.09473082659828336</v>
       </c>
       <c r="F9">
-        <v>0.7388158214508564</v>
+        <v>0.3566538820269471</v>
       </c>
       <c r="G9">
-        <v>0.6561410428825951</v>
+        <v>0.2394712311944289</v>
       </c>
       <c r="H9">
-        <v>0.3192280773367457</v>
+        <v>0.3090035230383279</v>
       </c>
       <c r="I9">
-        <v>3.536410873027108</v>
+        <v>1.36231893525337</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>5.410426322214136</v>
+        <v>1.81546455500802</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.014550270070544</v>
+        <v>1.009124801682248</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.101937305461092</v>
+        <v>0.728713051287798</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0385679050367429</v>
+        <v>0.01331838475246627</v>
       </c>
       <c r="E10">
-        <v>0.1478821006259317</v>
+        <v>0.09459361794134935</v>
       </c>
       <c r="F10">
-        <v>0.8897985425671351</v>
+        <v>0.3881849351860609</v>
       </c>
       <c r="G10">
-        <v>0.7969693717344342</v>
+        <v>0.26986270244997</v>
       </c>
       <c r="H10">
-        <v>0.3759875703174771</v>
+        <v>0.3169752099586987</v>
       </c>
       <c r="I10">
-        <v>4.18568935941957</v>
+        <v>1.559509024266362</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>6.420574982267823</v>
+        <v>2.13974165898</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.43255789683073</v>
+        <v>1.090721609134789</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.256129121630011</v>
+        <v>0.7777542647986593</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0412660396103206</v>
+        <v>0.0141884168868458</v>
       </c>
       <c r="E11">
-        <v>0.1633657989620794</v>
+        <v>0.09484376353069024</v>
       </c>
       <c r="F11">
-        <v>0.9607667294471156</v>
+        <v>0.4028554748166044</v>
       </c>
       <c r="G11">
-        <v>0.8632857852983875</v>
+        <v>0.2839248622061916</v>
       </c>
       <c r="H11">
-        <v>0.402997685247712</v>
+        <v>0.3208598096815365</v>
       </c>
       <c r="I11">
-        <v>4.485601748957066</v>
+        <v>1.64950678276054</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>6.882443396563076</v>
+        <v>2.2866741536929</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.629967818554974</v>
+        <v>1.128871459512339</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.314753342273036</v>
+        <v>0.7962992792301407</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04228697408360205</v>
+        <v>0.01451751139968138</v>
       </c>
       <c r="E12">
-        <v>0.1695428166425401</v>
+        <v>0.09498394608602467</v>
       </c>
       <c r="F12">
-        <v>0.9880157878939713</v>
+        <v>0.4084584170940104</v>
       </c>
       <c r="G12">
-        <v>0.8887702567257776</v>
+        <v>0.289284627349403</v>
       </c>
       <c r="H12">
-        <v>0.4134188989893204</v>
+        <v>0.3223681841704291</v>
       </c>
       <c r="I12">
-        <v>4.599931066752447</v>
+        <v>1.683627521378412</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>7.057771591138504</v>
+        <v>2.342227067881993</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.705913687553533</v>
+        <v>1.14346812575252</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.302116410173937</v>
+        <v>0.7923064383174392</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04206713214159663</v>
+        <v>0.01444665188302707</v>
       </c>
       <c r="E13">
-        <v>0.1681978514740443</v>
+        <v>0.09495172525911499</v>
       </c>
       <c r="F13">
-        <v>0.9821297556439106</v>
+        <v>0.4072496011825848</v>
       </c>
       <c r="G13">
-        <v>0.8832643678449301</v>
+        <v>0.2881287508698023</v>
       </c>
       <c r="H13">
-        <v>0.4111655451213068</v>
+        <v>0.3220416634931809</v>
       </c>
       <c r="I13">
-        <v>4.575272669544432</v>
+        <v>1.676277235728691</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>7.019990899772722</v>
+        <v>2.330266687285359</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.689501913254475</v>
+        <v>1.140317764779297</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.260947208656262</v>
+        <v>0.7792804959148043</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04135004813661425</v>
+        <v>0.01421549924740617</v>
       </c>
       <c r="E14">
-        <v>0.1638674551864412</v>
+        <v>0.09485438242487731</v>
       </c>
       <c r="F14">
-        <v>0.9630007306364092</v>
+        <v>0.4033154767631686</v>
       </c>
       <c r="G14">
-        <v>0.8653746641435305</v>
+        <v>0.2843651134790406</v>
       </c>
       <c r="H14">
-        <v>0.4038510421105457</v>
+        <v>0.3209831544935895</v>
       </c>
       <c r="I14">
-        <v>4.494991843408428</v>
+        <v>1.652313114411839</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>6.896858602594818</v>
+        <v>2.291246293005401</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.636191165444188</v>
+        <v>1.130069316107807</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.235761797037014</v>
+        <v>0.7712983457921609</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04091071160095083</v>
+        <v>0.01407386272321531</v>
       </c>
       <c r="E15">
-        <v>0.1612570702009215</v>
+        <v>0.09480069243736011</v>
       </c>
       <c r="F15">
-        <v>0.9513339279070294</v>
+        <v>0.4009119168020163</v>
       </c>
       <c r="G15">
-        <v>0.854466634597344</v>
+        <v>0.2820643194267092</v>
       </c>
       <c r="H15">
-        <v>0.3993965285561814</v>
+        <v>0.3203396593794139</v>
       </c>
       <c r="I15">
-        <v>4.44591964271811</v>
+        <v>1.637639623505834</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>6.821495220596574</v>
+        <v>2.267333714152187</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.603696518815951</v>
+        <v>1.123811454629049</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.091891073725492</v>
+        <v>0.7255045163500995</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03839146310896524</v>
+        <v>0.01326147641405129</v>
       </c>
       <c r="E16">
-        <v>0.1469118363380701</v>
+        <v>0.09458360341639604</v>
       </c>
       <c r="F16">
-        <v>0.8852104543344268</v>
+        <v>0.3872328034498196</v>
       </c>
       <c r="G16">
-        <v>0.7926847665204662</v>
+        <v>0.2689485313037068</v>
       </c>
       <c r="H16">
-        <v>0.3742481705767631</v>
+        <v>0.3167265580134</v>
       </c>
       <c r="I16">
-        <v>4.166189669831226</v>
+        <v>1.553633232460214</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>6.390445581477024</v>
+        <v>2.130127252816436</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.419815008417203</v>
+        <v>1.088249334996021</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.004004471391056</v>
+        <v>0.6973662323703707</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03684454266795001</v>
+        <v>0.01276248351311438</v>
       </c>
       <c r="E17">
-        <v>0.13862641944554</v>
+        <v>0.09453084211077112</v>
       </c>
       <c r="F17">
-        <v>0.8452628143310648</v>
+        <v>0.3789252081078445</v>
       </c>
       <c r="G17">
-        <v>0.7553933145682663</v>
+        <v>0.2609635730742497</v>
       </c>
       <c r="H17">
-        <v>0.3591402229140357</v>
+        <v>0.3145763396631764</v>
       </c>
       <c r="I17">
-        <v>3.995821376054124</v>
+        <v>1.502172222395984</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>6.126673362706242</v>
+        <v>2.045803802240329</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.308968848781006</v>
+        <v>1.066698543166098</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.953578618287622</v>
+        <v>0.6811654353848837</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03595425582189904</v>
+        <v>0.01247525855259823</v>
       </c>
       <c r="E18">
-        <v>0.1340376820373983</v>
+        <v>0.09452988384138195</v>
       </c>
       <c r="F18">
-        <v>0.8224980863639502</v>
+        <v>0.3741776379180095</v>
       </c>
       <c r="G18">
-        <v>0.7341531885008266</v>
+        <v>0.2563930975486954</v>
       </c>
       <c r="H18">
-        <v>0.3505611025226614</v>
+        <v>0.3133638840985498</v>
       </c>
       <c r="I18">
-        <v>3.898251679183034</v>
+        <v>1.4726010836809</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>5.975173401519044</v>
+        <v>1.997248529007521</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.245886435117967</v>
+        <v>1.054400032916931</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.936525427790741</v>
+        <v>0.6756773292764819</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03565272668902963</v>
+        <v>0.01237797276687047</v>
       </c>
       <c r="E19">
-        <v>0.1325132570675258</v>
+        <v>0.09453459148851806</v>
       </c>
       <c r="F19">
-        <v>0.8148254263300032</v>
+        <v>0.3725754558495282</v>
       </c>
       <c r="G19">
-        <v>0.7269961431136949</v>
+        <v>0.2548494163182653</v>
       </c>
       <c r="H19">
-        <v>0.3476747146672068</v>
+        <v>0.3129575329596577</v>
       </c>
       <c r="I19">
-        <v>3.865285661431756</v>
+        <v>1.462593650217997</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>5.923912402698903</v>
+        <v>1.980799266561235</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.224639190949972</v>
+        <v>1.050252560032789</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.013347009996323</v>
+        <v>0.7003633033467622</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03700927061039039</v>
+        <v>0.01281562489997157</v>
       </c>
       <c r="E20">
-        <v>0.1394898457928377</v>
+        <v>0.09453341334691601</v>
       </c>
       <c r="F20">
-        <v>0.8494930355698784</v>
+        <v>0.3798063806908232</v>
       </c>
       <c r="G20">
-        <v>0.7593410969122658</v>
+        <v>0.261811276766295</v>
       </c>
       <c r="H20">
-        <v>0.3607368934934527</v>
+        <v>0.3148027181851631</v>
       </c>
       <c r="I20">
-        <v>4.013913010736815</v>
+        <v>1.507647463902515</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>6.154729502043381</v>
+        <v>2.054785859166714</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.320697895828602</v>
+        <v>1.068982615680312</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.273032871107603</v>
+        <v>0.7831072374628434</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04156069425314257</v>
+        <v>0.01428340462066302</v>
       </c>
       <c r="E21">
-        <v>0.1651305446410625</v>
+        <v>0.09488173653432597</v>
       </c>
       <c r="F21">
-        <v>0.9686088223463969</v>
+        <v>0.4044697304617415</v>
       </c>
       <c r="G21">
-        <v>0.8706188062258633</v>
+        <v>0.2854696371772576</v>
       </c>
       <c r="H21">
-        <v>0.4059940636602306</v>
+        <v>0.3212930484766758</v>
       </c>
       <c r="I21">
-        <v>4.518550784240659</v>
+        <v>1.659350872011061</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>6.933013131344893</v>
+        <v>2.302709923073422</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.65181625408556</v>
+        <v>1.133075444002174</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.444145182115676</v>
+        <v>0.8370343220594805</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04453072731177343</v>
+        <v>0.01524052481222782</v>
       </c>
       <c r="E22">
-        <v>0.1837386538712273</v>
+        <v>0.09537459352418409</v>
       </c>
       <c r="F22">
-        <v>1.048668068268327</v>
+        <v>0.4208659210494119</v>
       </c>
       <c r="G22">
-        <v>0.9455384950620811</v>
+        <v>0.3011344850086459</v>
       </c>
       <c r="H22">
-        <v>0.4367093475193542</v>
+        <v>0.3257527275306131</v>
       </c>
       <c r="I22">
-        <v>4.852841075264308</v>
+        <v>1.758733312389552</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>7.444214953624964</v>
+        <v>2.464232637160535</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.875242374625827</v>
+        <v>1.175839849939422</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.352677203670396</v>
+        <v>0.8082664532821582</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04294597146385826</v>
+        <v>0.01472990001360586</v>
       </c>
       <c r="E23">
-        <v>0.1736234429895802</v>
+        <v>0.09508710831526912</v>
       </c>
       <c r="F23">
-        <v>1.005720247012675</v>
+        <v>0.4120894245148605</v>
       </c>
       <c r="G23">
-        <v>0.9053347050016072</v>
+        <v>0.292755091926395</v>
       </c>
       <c r="H23">
-        <v>0.4202041609396758</v>
+        <v>0.323352502642976</v>
       </c>
       <c r="I23">
-        <v>4.673976793070295</v>
+        <v>1.705670083641394</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>7.17111084494698</v>
+        <v>2.378072701442619</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.755300679815804</v>
+        <v>1.152934902711081</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.009122935758057</v>
+        <v>0.6990084014010449</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03693480004277205</v>
+        <v>0.01279160075859664</v>
       </c>
       <c r="E24">
-        <v>0.139098949640811</v>
+        <v>0.09453215941884707</v>
       </c>
       <c r="F24">
-        <v>0.8475799277374136</v>
+        <v>0.3794079135898443</v>
       </c>
       <c r="G24">
-        <v>0.7575556875349605</v>
+        <v>0.2614279671098956</v>
       </c>
       <c r="H24">
-        <v>0.3600147081989746</v>
+        <v>0.3147002985402736</v>
       </c>
       <c r="I24">
-        <v>4.00573261523752</v>
+        <v>1.505172061967301</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>6.142044872827881</v>
+        <v>2.050725309586568</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.315393197106005</v>
+        <v>1.067949702159581</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.643156640149698</v>
+        <v>0.5805316023148919</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03043011995462308</v>
+        <v>0.01069264379918877</v>
       </c>
       <c r="E25">
-        <v>0.1084983460828646</v>
+        <v>0.09505513364047502</v>
       </c>
       <c r="F25">
-        <v>0.6849558549464092</v>
+        <v>0.3453285596630593</v>
       </c>
       <c r="G25">
-        <v>0.6059822554127834</v>
+        <v>0.2284848564421651</v>
       </c>
       <c r="H25">
-        <v>0.2992457823388719</v>
+        <v>0.3062953034852569</v>
       </c>
       <c r="I25">
-        <v>3.300704804201288</v>
+        <v>1.289975735151188</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>5.039955635296508</v>
+        <v>1.69555192218715</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.866140285856545</v>
+        <v>0.979977380432814</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_12/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4927675928165911</v>
+        <v>1.376260511919639</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.009140987240385812</v>
+        <v>0.02562128329375213</v>
       </c>
       <c r="E2">
-        <v>0.09638581504330546</v>
+        <v>0.09043240342185399</v>
       </c>
       <c r="F2">
-        <v>0.3212188075540041</v>
+        <v>0.5705146521282032</v>
       </c>
       <c r="G2">
-        <v>0.2049276593427862</v>
+        <v>0.4995224649173196</v>
       </c>
       <c r="H2">
-        <v>0.3008942488266513</v>
+        <v>0.2573475922104933</v>
       </c>
       <c r="I2">
-        <v>1.132485420188019</v>
+        <v>2.791676950961744</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.432321805107307</v>
+        <v>4.232220025445784</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9182964999054093</v>
+        <v>1.552182462266074</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4329642906879485</v>
+        <v>1.196366976530669</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.008086000681259975</v>
+        <v>0.02234962501021798</v>
       </c>
       <c r="E3">
-        <v>0.09786825833404933</v>
+        <v>0.08044658498484836</v>
       </c>
       <c r="F3">
-        <v>0.3054797143202919</v>
+        <v>0.4955758434317517</v>
       </c>
       <c r="G3">
-        <v>0.1893833530526194</v>
+        <v>0.4298766684550941</v>
       </c>
       <c r="H3">
-        <v>0.2977200459642262</v>
+        <v>0.2304053678063553</v>
       </c>
       <c r="I3">
-        <v>1.026373579380177</v>
+        <v>2.451475525117473</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.252898307377208</v>
+        <v>3.685817735877094</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8783809609745674</v>
+        <v>1.347734902646039</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3960877178337228</v>
+        <v>1.086217416184894</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.007436720435912036</v>
+        <v>0.0203345067935814</v>
       </c>
       <c r="E4">
-        <v>0.09906192152865145</v>
+        <v>0.0752763050964198</v>
       </c>
       <c r="F4">
-        <v>0.296108005691238</v>
+        <v>0.4506492786179734</v>
       </c>
       <c r="G4">
-        <v>0.1800417492896429</v>
+        <v>0.3881372855889822</v>
       </c>
       <c r="H4">
-        <v>0.2960092709603401</v>
+        <v>0.214482607104074</v>
       </c>
       <c r="I4">
-        <v>0.9615371276990601</v>
+        <v>2.24450250104185</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.142240772238551</v>
+        <v>3.350446463257612</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.8547894254240873</v>
+        <v>1.22565927159178</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3810214938868057</v>
+        <v>1.041383634396567</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.007171783524981379</v>
+        <v>0.01951175703633368</v>
       </c>
       <c r="E5">
-        <v>0.09961920259038948</v>
+        <v>0.07339040339628156</v>
       </c>
       <c r="F5">
-        <v>0.2923619338133534</v>
+        <v>0.4325861386757239</v>
       </c>
       <c r="G5">
-        <v>0.1762853024405899</v>
+        <v>0.3713564052443132</v>
       </c>
       <c r="H5">
-        <v>0.2953718103503178</v>
+        <v>0.2081365081193809</v>
       </c>
       <c r="I5">
-        <v>0.9351975914198078</v>
+        <v>2.160581513366338</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.097027049475543</v>
+        <v>3.213762545085459</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.8454044460618491</v>
+        <v>1.176691930056649</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3785174438621652</v>
+        <v>1.033941562599438</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.007127770726196303</v>
+        <v>0.01937504557582059</v>
       </c>
       <c r="E6">
-        <v>0.09971600594746022</v>
+        <v>0.07309002964123579</v>
       </c>
       <c r="F6">
-        <v>0.2917442946282804</v>
+        <v>0.4296007572428309</v>
       </c>
       <c r="G6">
-        <v>0.1756645688524827</v>
+        <v>0.3685829219374455</v>
       </c>
       <c r="H6">
-        <v>0.2952695599473572</v>
+        <v>0.2070909791608671</v>
       </c>
       <c r="I6">
-        <v>0.9308289417169817</v>
+        <v>2.146670377525936</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.089512210258718</v>
+        <v>3.191063917132595</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.8438598424241661</v>
+        <v>1.168605502498536</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3958846851888609</v>
+        <v>1.085612587441005</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.007433148779128373</v>
+        <v>0.02032341724928344</v>
       </c>
       <c r="E7">
-        <v>0.09906915088799195</v>
+        <v>0.07525000224990208</v>
       </c>
       <c r="F7">
-        <v>0.2960571900315969</v>
+        <v>0.4504047178188983</v>
       </c>
       <c r="G7">
-        <v>0.1799908855723231</v>
+        <v>0.3879100857297573</v>
       </c>
       <c r="H7">
-        <v>0.296000432515811</v>
+        <v>0.2143964612054106</v>
       </c>
       <c r="I7">
-        <v>0.9611815691098116</v>
+        <v>2.243369077666756</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.141631484803099</v>
+        <v>3.348603226768887</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8546619324019957</v>
+        <v>1.224995839290614</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4721804648393686</v>
+        <v>1.314154764772439</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.008777560289772168</v>
+        <v>0.0244945296446204</v>
       </c>
       <c r="E8">
-        <v>0.09683787926031329</v>
+        <v>0.08677685093655185</v>
       </c>
       <c r="F8">
-        <v>0.3157310306950336</v>
+        <v>0.5444327120832639</v>
       </c>
       <c r="G8">
-        <v>0.1995255370700448</v>
+        <v>0.4752780970321311</v>
       </c>
       <c r="H8">
-        <v>0.2997502216866366</v>
+        <v>0.2479209788263148</v>
       </c>
       <c r="I8">
-        <v>1.095833607232933</v>
+        <v>2.673941745572776</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.370560487283441</v>
+        <v>4.043764652988003</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9043422715638485</v>
+        <v>1.480915961643348</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6205236852527776</v>
+        <v>1.765946986823224</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01140070335514309</v>
+        <v>0.03262416632389176</v>
       </c>
       <c r="E9">
-        <v>0.09473082659828336</v>
+        <v>0.118035996211141</v>
       </c>
       <c r="F9">
-        <v>0.3566538820269471</v>
+        <v>0.7388158214508707</v>
       </c>
       <c r="G9">
-        <v>0.2394712311944289</v>
+        <v>0.6561410428825241</v>
       </c>
       <c r="H9">
-        <v>0.3090035230383279</v>
+        <v>0.3192280773367457</v>
       </c>
       <c r="I9">
-        <v>1.36231893525337</v>
+        <v>3.536410873027052</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.81546455500802</v>
+        <v>5.41042632221405</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.009124801682248</v>
+        <v>2.014550270070572</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.728713051287798</v>
+        <v>2.101937305461263</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01331838475246627</v>
+        <v>0.03856790503675001</v>
       </c>
       <c r="E10">
-        <v>0.09459361794134935</v>
+        <v>0.147882100625953</v>
       </c>
       <c r="F10">
-        <v>0.3881849351860609</v>
+        <v>0.8897985425671209</v>
       </c>
       <c r="G10">
-        <v>0.26986270244997</v>
+        <v>0.79696937173442</v>
       </c>
       <c r="H10">
-        <v>0.3169752099586987</v>
+        <v>0.3759875703174913</v>
       </c>
       <c r="I10">
-        <v>1.559509024266362</v>
+        <v>4.185689359419655</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2.13974165898</v>
+        <v>6.420574982267851</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.090721609134789</v>
+        <v>2.432557896830673</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7777542647986593</v>
+        <v>2.256129121630011</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0141884168868458</v>
+        <v>0.04126603961016428</v>
       </c>
       <c r="E11">
-        <v>0.09484376353069024</v>
+        <v>0.1633657989620829</v>
       </c>
       <c r="F11">
-        <v>0.4028554748166044</v>
+        <v>0.9607667294471156</v>
       </c>
       <c r="G11">
-        <v>0.2839248622061916</v>
+        <v>0.8632857852984728</v>
       </c>
       <c r="H11">
-        <v>0.3208598096815365</v>
+        <v>0.4029976852476977</v>
       </c>
       <c r="I11">
-        <v>1.64950678276054</v>
+        <v>4.485601748957095</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2.2866741536929</v>
+        <v>6.882443396563076</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.128871459512339</v>
+        <v>2.629967818555002</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7962992792301407</v>
+        <v>2.314753342273889</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01451751139968138</v>
+        <v>0.04228697408342441</v>
       </c>
       <c r="E12">
-        <v>0.09498394608602467</v>
+        <v>0.1695428166425437</v>
       </c>
       <c r="F12">
-        <v>0.4084584170940104</v>
+        <v>0.9880157878939571</v>
       </c>
       <c r="G12">
-        <v>0.289284627349403</v>
+        <v>0.8887702567257918</v>
       </c>
       <c r="H12">
-        <v>0.3223681841704291</v>
+        <v>0.4134188989893062</v>
       </c>
       <c r="I12">
-        <v>1.683627521378412</v>
+        <v>4.599931066752504</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2.342227067881993</v>
+        <v>7.057771591138504</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.14346812575252</v>
+        <v>2.705913687553448</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7923064383174392</v>
+        <v>2.302116410174051</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01444665188302707</v>
+        <v>0.04206713214169611</v>
       </c>
       <c r="E13">
-        <v>0.09495172525911499</v>
+        <v>0.168197851474055</v>
       </c>
       <c r="F13">
-        <v>0.4072496011825848</v>
+        <v>0.9821297556438964</v>
       </c>
       <c r="G13">
-        <v>0.2881287508698023</v>
+        <v>0.8832643678448591</v>
       </c>
       <c r="H13">
-        <v>0.3220416634931809</v>
+        <v>0.4111655451213068</v>
       </c>
       <c r="I13">
-        <v>1.676277235728691</v>
+        <v>4.575272669544347</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2.330266687285359</v>
+        <v>7.019990899772665</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.140317764779297</v>
+        <v>2.689501913254475</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7792804959148043</v>
+        <v>2.260947208655807</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01421549924740617</v>
+        <v>0.04135004813654319</v>
       </c>
       <c r="E14">
-        <v>0.09485438242487731</v>
+        <v>0.1638674551864199</v>
       </c>
       <c r="F14">
-        <v>0.4033154767631686</v>
+        <v>0.9630007306364234</v>
       </c>
       <c r="G14">
-        <v>0.2843651134790406</v>
+        <v>0.8653746641435305</v>
       </c>
       <c r="H14">
-        <v>0.3209831544935895</v>
+        <v>0.4038510421105315</v>
       </c>
       <c r="I14">
-        <v>1.652313114411839</v>
+        <v>4.494991843408371</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2.291246293005401</v>
+        <v>6.896858602594847</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.130069316107807</v>
+        <v>2.636191165444188</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7712983457921609</v>
+        <v>2.235761797037185</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01407386272321531</v>
+        <v>0.04091071160083715</v>
       </c>
       <c r="E15">
-        <v>0.09480069243736011</v>
+        <v>0.1612570702009357</v>
       </c>
       <c r="F15">
-        <v>0.4009119168020163</v>
+        <v>0.9513339279070152</v>
       </c>
       <c r="G15">
-        <v>0.2820643194267092</v>
+        <v>0.854466634597344</v>
       </c>
       <c r="H15">
-        <v>0.3203396593794139</v>
+        <v>0.3993965285561814</v>
       </c>
       <c r="I15">
-        <v>1.637639623505834</v>
+        <v>4.445919642718167</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2.267333714152187</v>
+        <v>6.821495220596574</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.123811454629049</v>
+        <v>2.603696518816008</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7255045163500995</v>
+        <v>2.091891073725492</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01326147641405129</v>
+        <v>0.03839146310879471</v>
       </c>
       <c r="E16">
-        <v>0.09458360341639604</v>
+        <v>0.1469118363380773</v>
       </c>
       <c r="F16">
-        <v>0.3872328034498196</v>
+        <v>0.8852104543344268</v>
       </c>
       <c r="G16">
-        <v>0.2689485313037068</v>
+        <v>0.7926847665204519</v>
       </c>
       <c r="H16">
-        <v>0.3167265580134</v>
+        <v>0.3742481705767773</v>
       </c>
       <c r="I16">
-        <v>1.553633232460214</v>
+        <v>4.166189669831255</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>2.130127252816436</v>
+        <v>6.390445581477081</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.088249334996021</v>
+        <v>2.419815008417203</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6973662323703707</v>
+        <v>2.004004471390829</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01276248351311438</v>
+        <v>0.03684454266789317</v>
       </c>
       <c r="E17">
-        <v>0.09453084211077112</v>
+        <v>0.1386264194455613</v>
       </c>
       <c r="F17">
-        <v>0.3789252081078445</v>
+        <v>0.845262814331079</v>
       </c>
       <c r="G17">
-        <v>0.2609635730742497</v>
+        <v>0.7553933145683516</v>
       </c>
       <c r="H17">
-        <v>0.3145763396631764</v>
+        <v>0.359140222913922</v>
       </c>
       <c r="I17">
-        <v>1.502172222395984</v>
+        <v>3.995821376054153</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>2.045803802240329</v>
+        <v>6.126673362706214</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.066698543166098</v>
+        <v>2.308968848781063</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6811654353848837</v>
+        <v>1.953578618287622</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01247525855259823</v>
+        <v>0.03595425582190614</v>
       </c>
       <c r="E18">
-        <v>0.09452988384138195</v>
+        <v>0.1340376820374019</v>
       </c>
       <c r="F18">
-        <v>0.3741776379180095</v>
+        <v>0.8224980863639644</v>
       </c>
       <c r="G18">
-        <v>0.2563930975486954</v>
+        <v>0.7341531885008266</v>
       </c>
       <c r="H18">
-        <v>0.3133638840985498</v>
+        <v>0.3505611025225335</v>
       </c>
       <c r="I18">
-        <v>1.4726010836809</v>
+        <v>3.898251679183034</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.997248529007521</v>
+        <v>5.975173401519044</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.054400032916931</v>
+        <v>2.245886435118024</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6756773292764819</v>
+        <v>1.936525427790968</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01237797276687047</v>
+        <v>0.03565272668914332</v>
       </c>
       <c r="E19">
-        <v>0.09453459148851806</v>
+        <v>0.1325132570675365</v>
       </c>
       <c r="F19">
-        <v>0.3725754558495282</v>
+        <v>0.8148254263300032</v>
       </c>
       <c r="G19">
-        <v>0.2548494163182653</v>
+        <v>0.7269961431137233</v>
       </c>
       <c r="H19">
-        <v>0.3129575329596577</v>
+        <v>0.3476747146672068</v>
       </c>
       <c r="I19">
-        <v>1.462593650217997</v>
+        <v>3.865285661431813</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.980799266561235</v>
+        <v>5.923912402698932</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.050252560032789</v>
+        <v>2.224639190949915</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7003633033467622</v>
+        <v>2.013347009996949</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01281562489997157</v>
+        <v>0.03700927061044723</v>
       </c>
       <c r="E20">
-        <v>0.09453341334691601</v>
+        <v>0.1394898457928448</v>
       </c>
       <c r="F20">
-        <v>0.3798063806908232</v>
+        <v>0.8494930355698784</v>
       </c>
       <c r="G20">
-        <v>0.261811276766295</v>
+        <v>0.7593410969122374</v>
       </c>
       <c r="H20">
-        <v>0.3148027181851631</v>
+        <v>0.3607368934934527</v>
       </c>
       <c r="I20">
-        <v>1.507647463902515</v>
+        <v>4.013913010736758</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>2.054785859166714</v>
+        <v>6.154729502043267</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.068982615680312</v>
+        <v>2.320697895828602</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7831072374628434</v>
+        <v>2.273032871107773</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01428340462066302</v>
+        <v>0.04156069425308573</v>
       </c>
       <c r="E21">
-        <v>0.09488173653432597</v>
+        <v>0.165130544641066</v>
       </c>
       <c r="F21">
-        <v>0.4044697304617415</v>
+        <v>0.9686088223464111</v>
       </c>
       <c r="G21">
-        <v>0.2854696371772576</v>
+        <v>0.8706188062258491</v>
       </c>
       <c r="H21">
-        <v>0.3212930484766758</v>
+        <v>0.4059940636603443</v>
       </c>
       <c r="I21">
-        <v>1.659350872011061</v>
+        <v>4.518550784240659</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2.302709923073422</v>
+        <v>6.933013131344836</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.133075444002174</v>
+        <v>2.65181625408556</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8370343220594805</v>
+        <v>2.444145182116131</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01524052481222782</v>
+        <v>0.04453072731178054</v>
       </c>
       <c r="E22">
-        <v>0.09537459352418409</v>
+        <v>0.1837386538711954</v>
       </c>
       <c r="F22">
-        <v>0.4208659210494119</v>
+        <v>1.048668068268327</v>
       </c>
       <c r="G22">
-        <v>0.3011344850086459</v>
+        <v>0.9455384950620385</v>
       </c>
       <c r="H22">
-        <v>0.3257527275306131</v>
+        <v>0.4367093475193542</v>
       </c>
       <c r="I22">
-        <v>1.758733312389552</v>
+        <v>4.852841075264308</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.464232637160535</v>
+        <v>7.444214953624964</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.175839849939422</v>
+        <v>2.875242374625827</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8082664532821582</v>
+        <v>2.352677203670623</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01472990001360586</v>
+        <v>0.04294597146386536</v>
       </c>
       <c r="E23">
-        <v>0.09508710831526912</v>
+        <v>0.1736234429895909</v>
       </c>
       <c r="F23">
-        <v>0.4120894245148605</v>
+        <v>1.005720247012675</v>
       </c>
       <c r="G23">
-        <v>0.292755091926395</v>
+        <v>0.9053347050015788</v>
       </c>
       <c r="H23">
-        <v>0.323352502642976</v>
+        <v>0.4202041609396758</v>
       </c>
       <c r="I23">
-        <v>1.705670083641394</v>
+        <v>4.673976793070324</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2.378072701442619</v>
+        <v>7.171110844947037</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.152934902711081</v>
+        <v>2.755300679815832</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6990084014010449</v>
+        <v>2.009122935758057</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01279160075859664</v>
+        <v>0.036934800042836</v>
       </c>
       <c r="E24">
-        <v>0.09453215941884707</v>
+        <v>0.1390989496408288</v>
       </c>
       <c r="F24">
-        <v>0.3794079135898443</v>
+        <v>0.8475799277373994</v>
       </c>
       <c r="G24">
-        <v>0.2614279671098956</v>
+        <v>0.7575556875349747</v>
       </c>
       <c r="H24">
-        <v>0.3147002985402736</v>
+        <v>0.3600147081989604</v>
       </c>
       <c r="I24">
-        <v>1.505172061967301</v>
+        <v>4.005732615237463</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2.050725309586568</v>
+        <v>6.142044872827825</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.067949702159581</v>
+        <v>2.315393197106033</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5805316023148919</v>
+        <v>1.643156640149442</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01069264379918877</v>
+        <v>0.03043011995446676</v>
       </c>
       <c r="E25">
-        <v>0.09505513364047502</v>
+        <v>0.1084983460828504</v>
       </c>
       <c r="F25">
-        <v>0.3453285596630593</v>
+        <v>0.6849558549464092</v>
       </c>
       <c r="G25">
-        <v>0.2284848564421651</v>
+        <v>0.6059822554127834</v>
       </c>
       <c r="H25">
-        <v>0.3062953034852569</v>
+        <v>0.2992457823386587</v>
       </c>
       <c r="I25">
-        <v>1.289975735151188</v>
+        <v>3.300704804201288</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.69555192218715</v>
+        <v>5.039955635296479</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.979977380432814</v>
+        <v>1.86614028585646</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_12/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.376260511919639</v>
+        <v>0.3132154340876099</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02562128329375213</v>
+        <v>0.06587024649314088</v>
       </c>
       <c r="E2">
-        <v>0.09043240342185399</v>
+        <v>1.360652524654441</v>
       </c>
       <c r="F2">
-        <v>0.5705146521282032</v>
+        <v>0.3475930033442722</v>
       </c>
       <c r="G2">
-        <v>0.4995224649173196</v>
+        <v>0.2411815004864408</v>
       </c>
       <c r="H2">
-        <v>0.2573475922104933</v>
+        <v>0.01190881810087197</v>
       </c>
       <c r="I2">
-        <v>2.791676950961744</v>
+        <v>0.005613162234377356</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2090822068456077</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2578342549721704</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>4.232220025445784</v>
+        <v>2.755512589147287</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.552182462266074</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.8993055503095917</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.196366976530669</v>
+        <v>0.2726322749355887</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02234962501021798</v>
+        <v>0.05802843836102056</v>
       </c>
       <c r="E3">
-        <v>0.08044658498484836</v>
+        <v>1.188286449152855</v>
       </c>
       <c r="F3">
-        <v>0.4955758434317517</v>
+        <v>0.3218874458805701</v>
       </c>
       <c r="G3">
-        <v>0.4298766684550941</v>
+        <v>0.2241280244691453</v>
       </c>
       <c r="H3">
-        <v>0.2304053678063553</v>
+        <v>0.008826221147790608</v>
       </c>
       <c r="I3">
-        <v>2.451475525117473</v>
+        <v>0.006722146528433726</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2057430789566936</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2666106319935384</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>3.685817735877094</v>
+        <v>2.424542273786926</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.347734902646039</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.8558598784237859</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.086217416184894</v>
+        <v>0.2472905577962763</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0203345067935814</v>
+        <v>0.05321528217857718</v>
       </c>
       <c r="E4">
-        <v>0.0752763050964198</v>
+        <v>1.082619316266587</v>
       </c>
       <c r="F4">
-        <v>0.4506492786179734</v>
+        <v>0.306580930698118</v>
       </c>
       <c r="G4">
-        <v>0.3881372855889822</v>
+        <v>0.2140550633275282</v>
       </c>
       <c r="H4">
-        <v>0.214482607104074</v>
+        <v>0.007107053294368171</v>
       </c>
       <c r="I4">
-        <v>2.24450250104185</v>
+        <v>0.007511659239666013</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2039622304188811</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2724394730234465</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>3.350446463257612</v>
+        <v>2.22222393515321</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.22565927159178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.830584261832044</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.041383634396567</v>
+        <v>0.2359638758292135</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01951175703633368</v>
+        <v>0.05130229165012423</v>
       </c>
       <c r="E5">
-        <v>0.07339040339628156</v>
+        <v>1.039583344757204</v>
       </c>
       <c r="F5">
-        <v>0.4325861386757239</v>
+        <v>0.3001344626627258</v>
       </c>
       <c r="G5">
-        <v>0.3713564052443132</v>
+        <v>0.2097307113613098</v>
       </c>
       <c r="H5">
-        <v>0.2081365081193809</v>
+        <v>0.006446458167546965</v>
       </c>
       <c r="I5">
-        <v>2.160581513366338</v>
+        <v>0.007942892398391521</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2031310665174004</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2751150320465481</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>3.213762545085459</v>
+        <v>2.142992575405657</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.176691930056649</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.8195963318659523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.033941562599438</v>
+        <v>0.2329830868279146</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01937504557582059</v>
+        <v>0.05104391224588767</v>
       </c>
       <c r="E6">
-        <v>0.07309002964123579</v>
+        <v>1.032437597816454</v>
       </c>
       <c r="F6">
-        <v>0.4296007572428309</v>
+        <v>0.2986788498256701</v>
       </c>
       <c r="G6">
-        <v>0.3685829219374455</v>
+        <v>0.2086369259628427</v>
       </c>
       <c r="H6">
-        <v>0.2070909791608671</v>
+        <v>0.006339020620268643</v>
       </c>
       <c r="I6">
-        <v>2.146670377525936</v>
+        <v>0.008124955339043005</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2027893459312793</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2758066755833646</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>3.191063917132595</v>
+        <v>2.133541824238137</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.168605502498536</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.816548862765373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.085612587441005</v>
+        <v>0.2441384531489064</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02032341724928344</v>
+        <v>0.05335183190928916</v>
       </c>
       <c r="E7">
-        <v>0.07525000224990208</v>
+        <v>1.08203740526109</v>
       </c>
       <c r="F7">
-        <v>0.4504047178188983</v>
+        <v>0.3054250614453267</v>
       </c>
       <c r="G7">
-        <v>0.3879100857297573</v>
+        <v>0.2129567833626638</v>
       </c>
       <c r="H7">
-        <v>0.2143964612054106</v>
+        <v>0.007097850986185206</v>
       </c>
       <c r="I7">
-        <v>2.243369077666756</v>
+        <v>0.00779886532627394</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2033857068636564</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2731425015858839</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>3.348603226768887</v>
+        <v>2.231271882449164</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.224995839290614</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.8270484321540295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.314154764772439</v>
+        <v>0.2953039619431195</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0244945296446204</v>
+        <v>0.06338266190383735</v>
       </c>
       <c r="E8">
-        <v>0.08677685093655185</v>
+        <v>1.301175834555053</v>
       </c>
       <c r="F8">
-        <v>0.5444327120832639</v>
+        <v>0.3372184088479244</v>
       </c>
       <c r="G8">
-        <v>0.4752780970321311</v>
+        <v>0.2338456819054571</v>
       </c>
       <c r="H8">
-        <v>0.2479209788263148</v>
+        <v>0.01080772033145225</v>
       </c>
       <c r="I8">
-        <v>2.673941745572776</v>
+        <v>0.006313009245821455</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2071329273443823</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.2617101222193465</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>4.043764652988003</v>
+        <v>2.654717576209663</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.480915961643348</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.8795711239057766</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.765946986823224</v>
+        <v>0.397619718226224</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03262416632389176</v>
+        <v>0.08279286847862721</v>
       </c>
       <c r="E9">
-        <v>0.118035996211141</v>
+        <v>1.733045856404274</v>
       </c>
       <c r="F9">
-        <v>0.7388158214508707</v>
+        <v>0.4056572182198721</v>
       </c>
       <c r="G9">
-        <v>0.6561410428825241</v>
+        <v>0.280189737966559</v>
       </c>
       <c r="H9">
-        <v>0.3192280773367457</v>
+        <v>0.0196290733280049</v>
       </c>
       <c r="I9">
-        <v>3.536410873027052</v>
+        <v>0.00387214915951084</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2177814831361289</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2416335002282519</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>5.41042632221405</v>
+        <v>3.47507451286765</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.014550270070572</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.000825445685422</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.101937305461263</v>
+        <v>0.4710487305003284</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03856790503675001</v>
+        <v>0.09842968254208984</v>
       </c>
       <c r="E10">
-        <v>0.147882100625953</v>
+        <v>1.950700836269164</v>
       </c>
       <c r="F10">
-        <v>0.8897985425671209</v>
+        <v>0.4516456467973242</v>
       </c>
       <c r="G10">
-        <v>0.79696937173442</v>
+        <v>0.3097103092781452</v>
       </c>
       <c r="H10">
-        <v>0.3759875703174913</v>
+        <v>0.02659110369626294</v>
       </c>
       <c r="I10">
-        <v>4.185689359419655</v>
+        <v>0.002849943852348602</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2237108274582198</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.2309227945361751</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>6.420574982267851</v>
+        <v>4.081080987809116</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.432557896830673</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.076300649883422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.256129121630011</v>
+        <v>0.5168763118391837</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04126603961016428</v>
+        <v>0.1172132062211659</v>
       </c>
       <c r="E11">
-        <v>0.1633657989620829</v>
+        <v>1.261785568297555</v>
       </c>
       <c r="F11">
-        <v>0.9607667294471156</v>
+        <v>0.4126869651523108</v>
       </c>
       <c r="G11">
-        <v>0.8632857852984728</v>
+        <v>0.2659551174578993</v>
       </c>
       <c r="H11">
-        <v>0.4029976852476977</v>
+        <v>0.0418317441009286</v>
       </c>
       <c r="I11">
-        <v>4.485601748957095</v>
+        <v>0.003077374197952842</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1984080627383449</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2403487127961945</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>6.882443396563076</v>
+        <v>4.299389944517145</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.629967818555002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.9306973568624812</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.314753342273889</v>
+        <v>0.5460303036405776</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04228697408342441</v>
+        <v>0.1302419022527062</v>
       </c>
       <c r="E12">
-        <v>0.1695428166425437</v>
+        <v>0.7664579902981075</v>
       </c>
       <c r="F12">
-        <v>0.9880157878939571</v>
+        <v>0.3728884258661225</v>
       </c>
       <c r="G12">
-        <v>0.8887702567257918</v>
+        <v>0.2268644759907801</v>
       </c>
       <c r="H12">
-        <v>0.4134188989893062</v>
+        <v>0.07767300041022906</v>
       </c>
       <c r="I12">
-        <v>4.599931066752504</v>
+        <v>0.00298801404080784</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1775251409980001</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2507937272947593</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>7.057771591138504</v>
+        <v>4.338114681076831</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.705913687553448</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.8041272234762857</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.302116410174051</v>
+        <v>0.5590149122060666</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04206713214169611</v>
+        <v>0.1396994031268264</v>
       </c>
       <c r="E13">
-        <v>0.168197851474055</v>
+        <v>0.3913549320742078</v>
       </c>
       <c r="F13">
-        <v>0.9821297556438964</v>
+        <v>0.3285352356302624</v>
       </c>
       <c r="G13">
-        <v>0.8832643678448591</v>
+        <v>0.187540976042861</v>
       </c>
       <c r="H13">
-        <v>0.4111655451213068</v>
+        <v>0.1306906505286918</v>
       </c>
       <c r="I13">
-        <v>4.575272669544347</v>
+        <v>0.003035375608941848</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1579401432182621</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2634458267887041</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>7.019990899772665</v>
+        <v>4.256763986093574</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.689501913254475</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.6796986229170585</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.260947208655807</v>
+        <v>0.5597606378447324</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04135004813654319</v>
+        <v>0.1447682641612715</v>
       </c>
       <c r="E14">
-        <v>0.1638674551864199</v>
+        <v>0.2015676840689835</v>
       </c>
       <c r="F14">
-        <v>0.9630007306364234</v>
+        <v>0.29563982061822</v>
       </c>
       <c r="G14">
-        <v>0.8653746641435305</v>
+        <v>0.1602756783576353</v>
       </c>
       <c r="H14">
-        <v>0.4038510421105315</v>
+        <v>0.1782753480879506</v>
       </c>
       <c r="I14">
-        <v>4.494991843408371</v>
+        <v>0.003218302617124635</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.144923174159274</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2737770659598695</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>6.896858602594847</v>
+        <v>4.149039298549269</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.636191165444188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.5945655729670136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.235761797037185</v>
+        <v>0.554971114321603</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04091071160083715</v>
+        <v>0.1452030674231963</v>
       </c>
       <c r="E15">
-        <v>0.1612570702009357</v>
+        <v>0.1643931111886872</v>
       </c>
       <c r="F15">
-        <v>0.9513339279070152</v>
+        <v>0.2862369992971168</v>
       </c>
       <c r="G15">
-        <v>0.854466634597344</v>
+        <v>0.1530321407590378</v>
       </c>
       <c r="H15">
-        <v>0.3993965285561814</v>
+        <v>0.1902030273605106</v>
       </c>
       <c r="I15">
-        <v>4.445919642718167</v>
+        <v>0.00341992239603961</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1417768834290456</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2771214211648321</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>6.821495220596574</v>
+        <v>4.101617125335338</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.603696518816008</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.5725839266854678</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.091891073725492</v>
+        <v>0.5182891932305154</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03839146310879471</v>
+        <v>0.136257297289248</v>
       </c>
       <c r="E16">
-        <v>0.1469118363380773</v>
+        <v>0.1611737240650122</v>
       </c>
       <c r="F16">
-        <v>0.8852104543344268</v>
+        <v>0.2754099220602058</v>
       </c>
       <c r="G16">
-        <v>0.7926847665204519</v>
+        <v>0.1483127789070835</v>
       </c>
       <c r="H16">
-        <v>0.3742481705767773</v>
+        <v>0.1753201456668307</v>
       </c>
       <c r="I16">
-        <v>4.166189669831255</v>
+        <v>0.003959481804952425</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1429611245881759</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2784551718301458</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>6.390445581477081</v>
+        <v>3.864683108785357</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.419815008417203</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.564865858895871</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.004004471390829</v>
+        <v>0.4897179364232045</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03684454266789317</v>
+        <v>0.1267326908681667</v>
       </c>
       <c r="E17">
-        <v>0.1386264194455613</v>
+        <v>0.2458988757933369</v>
       </c>
       <c r="F17">
-        <v>0.845262814331079</v>
+        <v>0.2843922697656041</v>
       </c>
       <c r="G17">
-        <v>0.7553933145683516</v>
+        <v>0.1588666234158964</v>
       </c>
       <c r="H17">
-        <v>0.359140222913922</v>
+        <v>0.1367539787598986</v>
       </c>
       <c r="I17">
-        <v>3.995821376054153</v>
+        <v>0.004312990259280447</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1507034325592542</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2741295955845544</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>6.126673362706214</v>
+        <v>3.740791532348794</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.308968848781063</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.6033427080671885</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.953578618287622</v>
+        <v>0.467999860008959</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03595425582190614</v>
+        <v>0.1157377828580906</v>
       </c>
       <c r="E18">
-        <v>0.1340376820374019</v>
+        <v>0.479271813726605</v>
       </c>
       <c r="F18">
-        <v>0.8224980863639644</v>
+        <v>0.3128228140926055</v>
       </c>
       <c r="G18">
-        <v>0.7341531885008266</v>
+        <v>0.1856831192283153</v>
       </c>
       <c r="H18">
-        <v>0.3505611025225335</v>
+        <v>0.08465665174237103</v>
       </c>
       <c r="I18">
-        <v>3.898251679183034</v>
+        <v>0.004211375620059243</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1657914964845375</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2639124131547952</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>5.975173401519044</v>
+        <v>3.690654828784034</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.245886435118024</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.691743778584339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.936525427790968</v>
+        <v>0.4476272881324235</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03565272668914332</v>
+        <v>0.105104771383921</v>
       </c>
       <c r="E19">
-        <v>0.1325132570675365</v>
+        <v>0.9132233944869057</v>
       </c>
       <c r="F19">
-        <v>0.8148254263300032</v>
+        <v>0.3545975378454145</v>
       </c>
       <c r="G19">
-        <v>0.7269961431137233</v>
+        <v>0.224451553840062</v>
       </c>
       <c r="H19">
-        <v>0.3476747146672068</v>
+        <v>0.04209282695694583</v>
       </c>
       <c r="I19">
-        <v>3.865285661431813</v>
+        <v>0.004316486404104758</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1857524347486645</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2532649197078172</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>5.923912402698932</v>
+        <v>3.723574700950167</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.224639190949915</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.815751997695827</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.013347009996949</v>
+        <v>0.4424345490570829</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03700927061044723</v>
+        <v>0.09489228670772576</v>
       </c>
       <c r="E20">
-        <v>0.1394898457928448</v>
+        <v>1.889190624827421</v>
       </c>
       <c r="F20">
-        <v>0.8494930355698784</v>
+        <v>0.4358012019514845</v>
       </c>
       <c r="G20">
-        <v>0.7593410969122374</v>
+        <v>0.2983339408356187</v>
       </c>
       <c r="H20">
-        <v>0.3607368934934527</v>
+        <v>0.02463452058038396</v>
       </c>
       <c r="I20">
-        <v>4.013913010736758</v>
+        <v>0.003933113329301463</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2202106152016228</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.2362892135831363</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>6.154729502043267</v>
+        <v>3.953755892545644</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.320697895828602</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.04473383248046</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.273032871107773</v>
+        <v>0.4969844940679025</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04156069425308573</v>
+        <v>0.1048850696987103</v>
       </c>
       <c r="E21">
-        <v>0.165130544641066</v>
+        <v>2.215246081016204</v>
       </c>
       <c r="F21">
-        <v>0.9686088223464111</v>
+        <v>0.4836879910490239</v>
       </c>
       <c r="G21">
-        <v>0.8706188062258491</v>
+        <v>0.3330945165144783</v>
       </c>
       <c r="H21">
-        <v>0.4059940636603443</v>
+        <v>0.03153182501159213</v>
       </c>
       <c r="I21">
-        <v>4.518550784240659</v>
+        <v>0.003146906154837481</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2307865741089472</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.2265658220323914</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>6.933013131344836</v>
+        <v>4.428089289898594</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.65181625408556</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.140939870648538</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.444145182116131</v>
+        <v>0.5371733873675737</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04453072731178054</v>
+        <v>0.1118494727056145</v>
       </c>
       <c r="E22">
-        <v>0.1837386538711954</v>
+        <v>2.377239304782236</v>
       </c>
       <c r="F22">
-        <v>1.048668068268327</v>
+        <v>0.5135916718995759</v>
       </c>
       <c r="G22">
-        <v>0.9455384950620385</v>
+        <v>0.3543858477681567</v>
       </c>
       <c r="H22">
-        <v>0.4367093475193542</v>
+        <v>0.03596848993229385</v>
       </c>
       <c r="I22">
-        <v>4.852841075264308</v>
+        <v>0.002433177809864517</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2371167290556144</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.2201945689564369</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>7.444214953624964</v>
+        <v>4.721861497607961</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.875242374625827</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.199560594021136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.352677203670623</v>
+        <v>0.5193823806565376</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04294597146386536</v>
+        <v>0.1079321881583155</v>
       </c>
       <c r="E23">
-        <v>0.1736234429895909</v>
+        <v>2.290685713928866</v>
       </c>
       <c r="F23">
-        <v>1.005720247012675</v>
+        <v>0.4987843736987116</v>
       </c>
       <c r="G23">
-        <v>0.9053347050015788</v>
+        <v>0.3441465947049664</v>
       </c>
       <c r="H23">
-        <v>0.4202041609396758</v>
+        <v>0.03357065262584991</v>
       </c>
       <c r="I23">
-        <v>4.673976793070324</v>
+        <v>0.002476293859947631</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2343372216796524</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.2225038005535804</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>7.171110844947037</v>
+        <v>4.552472752313804</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.755300679815832</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.171910667957349</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.009122935758057</v>
+        <v>0.4455153164063859</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.036934800042836</v>
+        <v>0.09344269379656822</v>
       </c>
       <c r="E24">
-        <v>0.1390989496408288</v>
+        <v>1.964655748106793</v>
       </c>
       <c r="F24">
-        <v>0.8475799277373994</v>
+        <v>0.4423867877170053</v>
       </c>
       <c r="G24">
-        <v>0.7575556875349747</v>
+        <v>0.3049108913467506</v>
       </c>
       <c r="H24">
-        <v>0.3600147081989604</v>
+        <v>0.0250935067275293</v>
       </c>
       <c r="I24">
-        <v>4.005732615237463</v>
+        <v>0.003401953852846695</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2236061612046143</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.2339156322150941</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>6.142044872827825</v>
+        <v>3.933913556563255</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.315393197106033</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.065786374596655</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.643156640149442</v>
+        <v>0.3648130894026025</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03043011995446676</v>
+        <v>0.077835136808865</v>
       </c>
       <c r="E25">
-        <v>0.1084983460828504</v>
+        <v>1.615866523894596</v>
       </c>
       <c r="F25">
-        <v>0.6849558549464092</v>
+        <v>0.3847264035869813</v>
       </c>
       <c r="G25">
-        <v>0.6059822554127834</v>
+        <v>0.2653665936494747</v>
       </c>
       <c r="H25">
-        <v>0.2992457823386587</v>
+        <v>0.01705310210776301</v>
       </c>
       <c r="I25">
-        <v>3.300704804201288</v>
+        <v>0.004906810422546037</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2136338533856232</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2480784926205288</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>5.039955635296479</v>
+        <v>3.270809854239246</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.86614028585646</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.9605321942572402</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_12/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3132154340876099</v>
+        <v>0.3484810278968098</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.06587024649314088</v>
+        <v>0.06423719782605275</v>
       </c>
       <c r="E2">
-        <v>1.360652524654441</v>
+        <v>1.359401331899107</v>
       </c>
       <c r="F2">
-        <v>0.3475930033442722</v>
+        <v>0.3604184321861368</v>
       </c>
       <c r="G2">
-        <v>0.2411815004864408</v>
+        <v>0.2378261494610783</v>
       </c>
       <c r="H2">
-        <v>0.01190881810087197</v>
+        <v>0.01176987462517076</v>
       </c>
       <c r="I2">
-        <v>0.005613162234377356</v>
+        <v>0.003136219993342237</v>
       </c>
       <c r="J2">
-        <v>0.2090822068456077</v>
+        <v>0.2597579931088703</v>
       </c>
       <c r="K2">
-        <v>0.2578342549721704</v>
+        <v>0.2257235509402484</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1040789528136972</v>
       </c>
       <c r="M2">
-        <v>2.755512589147287</v>
+        <v>0.07027425220699968</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>2.620764003799792</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.8993055503095917</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.9413140737540573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2726322749355887</v>
+        <v>0.3078372451321059</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05802843836102056</v>
+        <v>0.05636516476344156</v>
       </c>
       <c r="E3">
-        <v>1.188286449152855</v>
+        <v>1.187447187444917</v>
       </c>
       <c r="F3">
-        <v>0.3218874458805701</v>
+        <v>0.3345698932953951</v>
       </c>
       <c r="G3">
-        <v>0.2241280244691453</v>
+        <v>0.2200639896920507</v>
       </c>
       <c r="H3">
-        <v>0.008826221147790608</v>
+        <v>0.008741070759090114</v>
       </c>
       <c r="I3">
-        <v>0.006722146528433726</v>
+        <v>0.003780282247614508</v>
       </c>
       <c r="J3">
-        <v>0.2057430789566936</v>
+        <v>0.2549645577767379</v>
       </c>
       <c r="K3">
-        <v>0.2666106319935384</v>
+        <v>0.2329185480465981</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1060352464363197</v>
       </c>
       <c r="M3">
-        <v>2.424542273786926</v>
+        <v>0.07547796892678527</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.290957448718245</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.8558598784237859</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.8971393762511894</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2472905577962763</v>
+        <v>0.2823202183407005</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05321528217857718</v>
+        <v>0.051539523507941</v>
       </c>
       <c r="E4">
-        <v>1.082619316266587</v>
+        <v>1.082017569687849</v>
       </c>
       <c r="F4">
-        <v>0.306580930698118</v>
+        <v>0.3191107100514259</v>
       </c>
       <c r="G4">
-        <v>0.2140550633275282</v>
+        <v>0.2095854769927001</v>
       </c>
       <c r="H4">
-        <v>0.007107053294368171</v>
+        <v>0.007050083361659576</v>
       </c>
       <c r="I4">
-        <v>0.007511659239666013</v>
+        <v>0.004262241090774221</v>
       </c>
       <c r="J4">
-        <v>0.2039622304188811</v>
+        <v>0.2521401258506017</v>
       </c>
       <c r="K4">
-        <v>0.2724394730234465</v>
+        <v>0.2377408999150736</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1077681110536942</v>
       </c>
       <c r="M4">
-        <v>2.22222393515321</v>
+        <v>0.07894726866870094</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.0897048340548</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.830584261832044</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.8712053050107187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2359638758292135</v>
+        <v>0.2709365569657933</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.05130229165012423</v>
+        <v>0.04961624989837787</v>
       </c>
       <c r="E5">
-        <v>1.039583344757204</v>
+        <v>1.039074591985738</v>
       </c>
       <c r="F5">
-        <v>0.3001344626627258</v>
+        <v>0.3126178394007368</v>
       </c>
       <c r="G5">
-        <v>0.2097307113613098</v>
+        <v>0.2051340031449271</v>
       </c>
       <c r="H5">
-        <v>0.006446458167546965</v>
+        <v>0.006399817822216769</v>
       </c>
       <c r="I5">
-        <v>0.007942892398391521</v>
+        <v>0.004571940703912425</v>
       </c>
       <c r="J5">
-        <v>0.2031310665174004</v>
+        <v>0.2508589147542395</v>
       </c>
       <c r="K5">
-        <v>0.2751150320465481</v>
+        <v>0.2398923335929917</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1085474663667164</v>
       </c>
       <c r="M5">
-        <v>2.142992575405657</v>
+        <v>0.08055169534983264</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>2.010566509997119</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.8195963318659523</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.859991078339533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2329830868279146</v>
+        <v>0.2680052553122891</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05104391224588767</v>
+        <v>0.04934797092037257</v>
       </c>
       <c r="E6">
-        <v>1.032437597816454</v>
+        <v>1.031943537840547</v>
       </c>
       <c r="F6">
-        <v>0.2986788498256701</v>
+        <v>0.3111924889828188</v>
       </c>
       <c r="G6">
-        <v>0.2086369259628427</v>
+        <v>0.2040588454946572</v>
       </c>
       <c r="H6">
-        <v>0.006339020620268643</v>
+        <v>0.006293980470329363</v>
       </c>
       <c r="I6">
-        <v>0.008124955339043005</v>
+        <v>0.004746231694173098</v>
       </c>
       <c r="J6">
-        <v>0.2027893459312793</v>
+        <v>0.2504543390433653</v>
       </c>
       <c r="K6">
-        <v>0.2758066755833646</v>
+        <v>0.2403667326302044</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1086149528472767</v>
       </c>
       <c r="M6">
-        <v>2.133541824238137</v>
+        <v>0.08097221796728604</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>2.000606202623032</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.816548862765373</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.8570179070327271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2441384531489064</v>
+        <v>0.2796939400346474</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05335183190928916</v>
+        <v>0.05178398755938218</v>
       </c>
       <c r="E7">
-        <v>1.08203740526109</v>
+        <v>1.081390032215339</v>
       </c>
       <c r="F7">
-        <v>0.3054250614453267</v>
+        <v>0.3172515695034406</v>
       </c>
       <c r="G7">
-        <v>0.2129567833626638</v>
+        <v>0.2110190573386035</v>
       </c>
       <c r="H7">
-        <v>0.007097850986185206</v>
+        <v>0.007036591434490869</v>
       </c>
       <c r="I7">
-        <v>0.00779886532627394</v>
+        <v>0.00458218075812411</v>
       </c>
       <c r="J7">
-        <v>0.2033857068636564</v>
+        <v>0.2477660298741995</v>
       </c>
       <c r="K7">
-        <v>0.2731425015858839</v>
+        <v>0.2381364523466134</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1076015804772252</v>
       </c>
       <c r="M7">
-        <v>2.231271882449164</v>
+        <v>0.07941030030126228</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>2.096113289991365</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.8270484321540295</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.8654513446820857</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2953039619431195</v>
+        <v>0.3320132702854437</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.06338266190383735</v>
+        <v>0.06214891104380627</v>
       </c>
       <c r="E8">
-        <v>1.301175834555053</v>
+        <v>1.299916864309282</v>
       </c>
       <c r="F8">
-        <v>0.3372184088479244</v>
+        <v>0.3474592236300609</v>
       </c>
       <c r="G8">
-        <v>0.2338456819054571</v>
+        <v>0.2385297794397445</v>
       </c>
       <c r="H8">
-        <v>0.01080772033145225</v>
+        <v>0.01067186699329056</v>
       </c>
       <c r="I8">
-        <v>0.006313009245821455</v>
+        <v>0.003727124007727234</v>
       </c>
       <c r="J8">
-        <v>0.2071329273443823</v>
+        <v>0.2448945554474165</v>
       </c>
       <c r="K8">
-        <v>0.2617101222193465</v>
+        <v>0.2288363990419544</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1045811520151823</v>
       </c>
       <c r="M8">
-        <v>2.654717576209663</v>
+        <v>0.07259613642632345</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>2.514385593841638</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.8795711239057766</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.9134050744657571</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.397619718226224</v>
+        <v>0.4338827527817415</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.08279286847862721</v>
+        <v>0.08182447037236074</v>
       </c>
       <c r="E9">
-        <v>1.733045856404274</v>
+        <v>1.730602269777847</v>
       </c>
       <c r="F9">
-        <v>0.4056572182198721</v>
+        <v>0.4149959912030496</v>
       </c>
       <c r="G9">
-        <v>0.280189737966559</v>
+        <v>0.2890685661140537</v>
       </c>
       <c r="H9">
-        <v>0.0196290733280049</v>
+        <v>0.01931824514543545</v>
       </c>
       <c r="I9">
-        <v>0.00387214915951084</v>
+        <v>0.002276413058350357</v>
       </c>
       <c r="J9">
-        <v>0.2177814831361289</v>
+        <v>0.2547230909725613</v>
       </c>
       <c r="K9">
-        <v>0.2416335002282519</v>
+        <v>0.2130141469685256</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1030115691359414</v>
       </c>
       <c r="M9">
-        <v>3.47507451286765</v>
+        <v>0.06067443265888084</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>3.334100234597429</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.000825445685422</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.032557225192136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4710487305003284</v>
+        <v>0.509536038035435</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.09842968254208984</v>
+        <v>0.09842829913747408</v>
       </c>
       <c r="E10">
-        <v>1.950700836269164</v>
+        <v>1.947087807320699</v>
       </c>
       <c r="F10">
-        <v>0.4516456467973242</v>
+        <v>0.4555166326391671</v>
       </c>
       <c r="G10">
-        <v>0.3097103092781452</v>
+        <v>0.336746207551414</v>
       </c>
       <c r="H10">
-        <v>0.02659110369626294</v>
+        <v>0.02608960666474403</v>
       </c>
       <c r="I10">
-        <v>0.002849943852348602</v>
+        <v>0.0018699269105662</v>
       </c>
       <c r="J10">
-        <v>0.2237108274582198</v>
+        <v>0.238802910520171</v>
       </c>
       <c r="K10">
-        <v>0.2309227945361751</v>
+        <v>0.205217119376897</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1051840842856588</v>
       </c>
       <c r="M10">
-        <v>4.081080987809116</v>
+        <v>0.05382659099317344</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>3.930461077765585</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.076300649883422</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.091537429267646</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5168763118391837</v>
+        <v>0.5688423853161453</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1172132062211659</v>
+        <v>0.1187347395897973</v>
       </c>
       <c r="E11">
-        <v>1.261785568297555</v>
+        <v>1.258203781579226</v>
       </c>
       <c r="F11">
-        <v>0.4126869651523108</v>
+        <v>0.4087516454345561</v>
       </c>
       <c r="G11">
-        <v>0.2659551174578993</v>
+        <v>0.3244010362876821</v>
       </c>
       <c r="H11">
-        <v>0.0418317441009286</v>
+        <v>0.0412667478748503</v>
       </c>
       <c r="I11">
-        <v>0.003077374197952842</v>
+        <v>0.002369223314664382</v>
       </c>
       <c r="J11">
-        <v>0.1984080627383449</v>
+        <v>0.1802545747082007</v>
       </c>
       <c r="K11">
-        <v>0.2403487127961945</v>
+        <v>0.212962002944808</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1113416205665914</v>
       </c>
       <c r="M11">
-        <v>4.299389944517145</v>
+        <v>0.05439202764245366</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>4.107354664912918</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.9306973568624812</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.9226581177025679</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5460303036405776</v>
+        <v>0.6078034587887373</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1302419022527062</v>
+        <v>0.1324343111031396</v>
       </c>
       <c r="E12">
-        <v>0.7664579902981075</v>
+        <v>0.7633218294809012</v>
       </c>
       <c r="F12">
-        <v>0.3728884258661225</v>
+        <v>0.36659619091742</v>
       </c>
       <c r="G12">
-        <v>0.2268644759907801</v>
+        <v>0.2965138732850932</v>
       </c>
       <c r="H12">
-        <v>0.07767300041022906</v>
+        <v>0.0771113685682252</v>
       </c>
       <c r="I12">
-        <v>0.00298801404080784</v>
+        <v>0.002324822974728136</v>
       </c>
       <c r="J12">
-        <v>0.1775251409980001</v>
+        <v>0.1522483292571479</v>
       </c>
       <c r="K12">
-        <v>0.2507937272947593</v>
+        <v>0.2210062413526757</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1160120098740602</v>
       </c>
       <c r="M12">
-        <v>4.338114681076831</v>
+        <v>0.05613923891641726</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>4.119486985662377</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.8041272234762857</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.7898409763206615</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5590149122060666</v>
+        <v>0.6275837166851375</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1396994031268264</v>
+        <v>0.141327983849564</v>
       </c>
       <c r="E13">
-        <v>0.3913549320742078</v>
+        <v>0.3888922809076902</v>
       </c>
       <c r="F13">
-        <v>0.3285352356302624</v>
+        <v>0.3253303002204575</v>
       </c>
       <c r="G13">
-        <v>0.187540976042861</v>
+        <v>0.2491641303692091</v>
       </c>
       <c r="H13">
-        <v>0.1306906505286918</v>
+        <v>0.1301846255176429</v>
       </c>
       <c r="I13">
-        <v>0.003035375608941848</v>
+        <v>0.002316548632799176</v>
       </c>
       <c r="J13">
-        <v>0.1579401432182621</v>
+        <v>0.14309711073183</v>
       </c>
       <c r="K13">
-        <v>0.2634458267887041</v>
+        <v>0.2294779231625306</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1192103594527225</v>
       </c>
       <c r="M13">
-        <v>4.256763986093574</v>
+        <v>0.05912800597227985</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>4.022754872337714</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.6796986229170585</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.6748188027743822</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5597606378447324</v>
+        <v>0.6317914237629623</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1447682641612715</v>
+        <v>0.1453864787233243</v>
       </c>
       <c r="E14">
-        <v>0.2015676840689835</v>
+        <v>0.1995971669926888</v>
       </c>
       <c r="F14">
-        <v>0.29563982061822</v>
+        <v>0.2965781767680582</v>
       </c>
       <c r="G14">
-        <v>0.1602756783576353</v>
+        <v>0.2094116499691481</v>
       </c>
       <c r="H14">
-        <v>0.1782753480879506</v>
+        <v>0.1778249023700482</v>
       </c>
       <c r="I14">
-        <v>0.003218302617124635</v>
+        <v>0.00242839068464562</v>
       </c>
       <c r="J14">
-        <v>0.144923174159274</v>
+        <v>0.1428423457139054</v>
       </c>
       <c r="K14">
-        <v>0.2737770659598695</v>
+        <v>0.2357671053326129</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1207438322452532</v>
       </c>
       <c r="M14">
-        <v>4.149039298549269</v>
+        <v>0.06194968900934938</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>3.908803217652462</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.5945655729670136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.6013673858062845</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.554971114321603</v>
+        <v>0.6272729457801347</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1452030674231963</v>
+        <v>0.1453121678196254</v>
       </c>
       <c r="E15">
-        <v>0.1643931111886872</v>
+        <v>0.1625695742076978</v>
       </c>
       <c r="F15">
-        <v>0.2862369992971168</v>
+        <v>0.2890625140172176</v>
       </c>
       <c r="G15">
-        <v>0.1530321407590378</v>
+        <v>0.1964004841740703</v>
       </c>
       <c r="H15">
-        <v>0.1902030273605106</v>
+        <v>0.1897766334438131</v>
       </c>
       <c r="I15">
-        <v>0.00341992239603961</v>
+        <v>0.00260946615235369</v>
       </c>
       <c r="J15">
-        <v>0.1417768834290456</v>
+        <v>0.1452852152393049</v>
       </c>
       <c r="K15">
-        <v>0.2771214211648321</v>
+        <v>0.2376264951251308</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1208514970612882</v>
       </c>
       <c r="M15">
-        <v>4.101617125335338</v>
+        <v>0.06303689817649527</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>3.861446304120193</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.5725839266854678</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.5845226151289182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5182891932305154</v>
+        <v>0.5848033933292527</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.136257297289248</v>
+        <v>0.1343980004494369</v>
       </c>
       <c r="E16">
-        <v>0.1611737240650122</v>
+        <v>0.1597011365921723</v>
       </c>
       <c r="F16">
-        <v>0.2754099220602058</v>
+        <v>0.285544948211637</v>
       </c>
       <c r="G16">
-        <v>0.1483127789070835</v>
+        <v>0.1687448732935053</v>
       </c>
       <c r="H16">
-        <v>0.1753201456668307</v>
+        <v>0.174998221810867</v>
       </c>
       <c r="I16">
-        <v>0.003959481804952425</v>
+        <v>0.002937279448061325</v>
       </c>
       <c r="J16">
-        <v>0.1429611245881759</v>
+        <v>0.1703171905980412</v>
       </c>
       <c r="K16">
-        <v>0.2784551718301458</v>
+        <v>0.2365945100600655</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1169103822358526</v>
       </c>
       <c r="M16">
-        <v>3.864683108785357</v>
+        <v>0.06527541151346128</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>3.642880096134661</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.564865858895871</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.5966558558246646</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4897179364232045</v>
+        <v>0.5506370403745393</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1267326908681667</v>
+        <v>0.124269438284486</v>
       </c>
       <c r="E17">
-        <v>0.2458988757933369</v>
+        <v>0.2444810364898728</v>
       </c>
       <c r="F17">
-        <v>0.2843922697656041</v>
+        <v>0.2973196594134038</v>
       </c>
       <c r="G17">
-        <v>0.1588666234158964</v>
+        <v>0.170073783955246</v>
       </c>
       <c r="H17">
-        <v>0.1367539787598986</v>
+        <v>0.1364773175307192</v>
       </c>
       <c r="I17">
-        <v>0.004312990259280447</v>
+        <v>0.003164065511298553</v>
       </c>
       <c r="J17">
-        <v>0.1507034325592542</v>
+        <v>0.1894602215603456</v>
       </c>
       <c r="K17">
-        <v>0.2741295955845544</v>
+        <v>0.2331262030886769</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1136113641413221</v>
       </c>
       <c r="M17">
-        <v>3.740791532348794</v>
+        <v>0.06555214314735025</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>3.534240082381586</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.6033427080671885</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.6432165192477157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.467999860008959</v>
+        <v>0.5219347772652725</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1157377828580906</v>
+        <v>0.1133749364998522</v>
       </c>
       <c r="E18">
-        <v>0.479271813726605</v>
+        <v>0.4776882915596019</v>
       </c>
       <c r="F18">
-        <v>0.3128228140926055</v>
+        <v>0.326415908944611</v>
       </c>
       <c r="G18">
-        <v>0.1856831192283153</v>
+        <v>0.1928367950959355</v>
       </c>
       <c r="H18">
-        <v>0.08465665174237103</v>
+        <v>0.08438854519681627</v>
       </c>
       <c r="I18">
-        <v>0.004211375620059243</v>
+        <v>0.00295979902526966</v>
       </c>
       <c r="J18">
-        <v>0.1657914964845375</v>
+        <v>0.2097821494303105</v>
       </c>
       <c r="K18">
-        <v>0.2639124131547952</v>
+        <v>0.2263461221852587</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1101326986729827</v>
       </c>
       <c r="M18">
-        <v>3.690654828784034</v>
+        <v>0.06379112496936656</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>3.502456643501716</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.691743778584339</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.7343881980151394</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4476272881324235</v>
+        <v>0.4942404328878638</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.105104771383921</v>
+        <v>0.1031451737035667</v>
       </c>
       <c r="E19">
-        <v>0.9132233944869057</v>
+        <v>0.9112599000852271</v>
       </c>
       <c r="F19">
-        <v>0.3545975378454145</v>
+        <v>0.3676854735147614</v>
       </c>
       <c r="G19">
-        <v>0.224451553840062</v>
+        <v>0.2302745655571101</v>
       </c>
       <c r="H19">
-        <v>0.04209282695694583</v>
+        <v>0.04179920921681912</v>
       </c>
       <c r="I19">
-        <v>0.004316486404104758</v>
+        <v>0.003097638550010551</v>
       </c>
       <c r="J19">
-        <v>0.1857524347486645</v>
+        <v>0.231299781857409</v>
       </c>
       <c r="K19">
-        <v>0.2532649197078172</v>
+        <v>0.2196030013918957</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1074670438979943</v>
       </c>
       <c r="M19">
-        <v>3.723574700950167</v>
+        <v>0.06140204848495578</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>3.553297567817253</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.815751997695827</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.8579518406142626</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4424345490570829</v>
+        <v>0.4799362487989924</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.09489228670772576</v>
+        <v>0.09406535148445982</v>
       </c>
       <c r="E20">
-        <v>1.889190624827421</v>
+        <v>1.8860545820624</v>
       </c>
       <c r="F20">
-        <v>0.4358012019514845</v>
+        <v>0.4444254898427644</v>
       </c>
       <c r="G20">
-        <v>0.2983339408356187</v>
+        <v>0.3118072139046291</v>
       </c>
       <c r="H20">
-        <v>0.02463452058038396</v>
+        <v>0.02420802577636971</v>
       </c>
       <c r="I20">
-        <v>0.003933113329301463</v>
+        <v>0.002937962786274007</v>
       </c>
       <c r="J20">
-        <v>0.2202106152016228</v>
+        <v>0.2539157683822282</v>
       </c>
       <c r="K20">
-        <v>0.2362892135831363</v>
+        <v>0.2087346766022886</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1049817388016852</v>
       </c>
       <c r="M20">
-        <v>3.953755892545644</v>
+        <v>0.05617721262032394</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>3.805656523456264</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.04473383248046</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.074532918604035</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4969844940679025</v>
+        <v>0.5411950982851863</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1048850696987103</v>
+        <v>0.1075841474376347</v>
       </c>
       <c r="E21">
-        <v>2.215246081016204</v>
+        <v>2.210125912814789</v>
       </c>
       <c r="F21">
-        <v>0.4836879910490239</v>
+        <v>0.4720650946551075</v>
       </c>
       <c r="G21">
-        <v>0.3330945165144783</v>
+        <v>0.4112602404474046</v>
       </c>
       <c r="H21">
-        <v>0.03153182501159213</v>
+        <v>0.03080426519909762</v>
       </c>
       <c r="I21">
-        <v>0.003146906154837481</v>
+        <v>0.00257466850359922</v>
       </c>
       <c r="J21">
-        <v>0.2307865741089472</v>
+        <v>0.1882313504277136</v>
       </c>
       <c r="K21">
-        <v>0.2265658220323914</v>
+        <v>0.2038926346504262</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1079825989220122</v>
       </c>
       <c r="M21">
-        <v>4.428089289898594</v>
+        <v>0.05119929131519463</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>4.253605891696793</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.140939870648538</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.108680643137518</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5371733873675737</v>
+        <v>0.5865504938946913</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1118494727056145</v>
+        <v>0.1171646291932404</v>
       </c>
       <c r="E22">
-        <v>2.377239304782236</v>
+        <v>2.370796913134797</v>
       </c>
       <c r="F22">
-        <v>0.5135916718995759</v>
+        <v>0.4871941525570023</v>
       </c>
       <c r="G22">
-        <v>0.3543858477681567</v>
+        <v>0.4829037955681059</v>
       </c>
       <c r="H22">
-        <v>0.03596848993229385</v>
+        <v>0.03502742888419696</v>
       </c>
       <c r="I22">
-        <v>0.002433177809864517</v>
+        <v>0.002039961821868275</v>
       </c>
       <c r="J22">
-        <v>0.2371167290556144</v>
+        <v>0.1506482373444271</v>
       </c>
       <c r="K22">
-        <v>0.2201945689564369</v>
+        <v>0.2010355137565067</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1104750697523151</v>
       </c>
       <c r="M22">
-        <v>4.721861497607961</v>
+        <v>0.04807587086419485</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>4.528468156600582</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.199560594021136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.122174344099136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5193823806565376</v>
+        <v>0.564738552800776</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1079321881583155</v>
+        <v>0.1114811972523171</v>
       </c>
       <c r="E23">
-        <v>2.290685713928866</v>
+        <v>2.28506607122101</v>
       </c>
       <c r="F23">
-        <v>0.4987843736987116</v>
+        <v>0.4822885694796071</v>
       </c>
       <c r="G23">
-        <v>0.3441465947049664</v>
+        <v>0.4378465036072043</v>
       </c>
       <c r="H23">
-        <v>0.03357065262584991</v>
+        <v>0.03276140694697283</v>
       </c>
       <c r="I23">
-        <v>0.002476293859947631</v>
+        <v>0.001933388062095531</v>
       </c>
       <c r="J23">
-        <v>0.2343372216796524</v>
+        <v>0.1765940610234011</v>
       </c>
       <c r="K23">
-        <v>0.2225038005535804</v>
+        <v>0.201395119765861</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1085919288810242</v>
       </c>
       <c r="M23">
-        <v>4.552472752313804</v>
+        <v>0.04939465432818047</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>4.374255742711853</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.171910667957349</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.124742399986673</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4455153164063859</v>
+        <v>0.4817713211185861</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.09344269379656822</v>
+        <v>0.09266764277159467</v>
       </c>
       <c r="E24">
-        <v>1.964655748106793</v>
+        <v>1.96146921005203</v>
       </c>
       <c r="F24">
-        <v>0.4423867877170053</v>
+        <v>0.4507993723218817</v>
       </c>
       <c r="G24">
-        <v>0.3049108913467506</v>
+        <v>0.3176610168555385</v>
       </c>
       <c r="H24">
-        <v>0.0250935067275293</v>
+        <v>0.02466323714200436</v>
       </c>
       <c r="I24">
-        <v>0.003401953852846695</v>
+        <v>0.002317445783218908</v>
       </c>
       <c r="J24">
-        <v>0.2236061612046143</v>
+        <v>0.2577791685417026</v>
       </c>
       <c r="K24">
-        <v>0.2339156322150941</v>
+        <v>0.2070763937615094</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1043167451922109</v>
       </c>
       <c r="M24">
-        <v>3.933913556563255</v>
+        <v>0.0556039208150878</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>3.79053170621836</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.065786374596655</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.094980466664907</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3648130894026025</v>
+        <v>0.4012301594916465</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.077835136808865</v>
+        <v>0.07655867425030038</v>
       </c>
       <c r="E25">
-        <v>1.615866523894596</v>
+        <v>1.613825960718586</v>
       </c>
       <c r="F25">
-        <v>0.3847264035869813</v>
+        <v>0.395736276124687</v>
       </c>
       <c r="G25">
-        <v>0.2653665936494747</v>
+        <v>0.2697173102247916</v>
       </c>
       <c r="H25">
-        <v>0.01705310210776301</v>
+        <v>0.01680279416119801</v>
       </c>
       <c r="I25">
-        <v>0.004906810422546037</v>
+        <v>0.003133394522077282</v>
       </c>
       <c r="J25">
-        <v>0.2136338533856232</v>
+        <v>0.2563336612708653</v>
       </c>
       <c r="K25">
-        <v>0.2480784926205288</v>
+        <v>0.2177612649598011</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1031508858023917</v>
       </c>
       <c r="M25">
-        <v>3.270809854239246</v>
+        <v>0.06409953561195181</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>3.128973778022385</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.9605321942572402</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.9972633637986661</v>
       </c>
     </row>
   </sheetData>
